--- a/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
+++ b/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ccwbe_kohler_MA\ccwbe_kohler_MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\Parametertabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80612E0D-4BE4-4596-A144-BFBD22F52E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFC58D-E038-438A-9B24-263F4AFC1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9654" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9654" uniqueCount="555">
   <si>
     <t>Gruendigkeit</t>
   </si>
@@ -1530,9 +1530,6 @@
     <t>arrondieren</t>
   </si>
   <si>
-    <t>Anforderungsprofil_NaiS_koll</t>
-  </si>
-  <si>
     <t>38 38S 39 39* 40* 41 41* - colline Variante</t>
   </si>
   <si>
@@ -2008,6 +2005,18 @@
   </si>
   <si>
     <t>25F</t>
+  </si>
+  <si>
+    <t>43 43S - colline Variante</t>
+  </si>
+  <si>
+    <t>66 - colline Variante</t>
+  </si>
+  <si>
+    <t>25e - colline Variante</t>
+  </si>
+  <si>
+    <t>Anford_kol</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +2705,7 @@
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2840,6 +2849,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5189,7 +5201,7 @@
     <tableColumn id="48" xr3:uid="{3A2CB94B-214F-4306-A120-C1479780D5BD}" name="Subregionen" dataDxfId="11"/>
     <tableColumn id="49" xr3:uid="{3E07F29C-51ED-4072-83BC-2F5DA6ACDB72}" name="TongehaltJuraMittelland" dataDxfId="10"/>
     <tableColumn id="50" xr3:uid="{E040CD7D-FF26-4984-83F1-8207470AA946}" name="TongehaltOberland" dataDxfId="9"/>
-    <tableColumn id="59" xr3:uid="{D6033E34-3974-4C80-A778-5DB4446B4BD1}" name="Anforderungsprofil_NaiS_koll" dataDxfId="8"/>
+    <tableColumn id="59" xr3:uid="{D6033E34-3974-4C80-A778-5DB4446B4BD1}" name="Anford_kol" dataDxfId="8"/>
     <tableColumn id="51" xr3:uid="{1729F7E6-F7A5-49B9-A10C-5E4519AFC242}" name="Anforderungsprofil NaiS" dataDxfId="7"/>
     <tableColumn id="52" xr3:uid="{04B250AC-3199-4E82-A322-1983B0CFC7B2}" name="Rückübersetzung (BE und Nais Kollin)" dataDxfId="6"/>
     <tableColumn id="53" xr3:uid="{90D54D60-057C-4992-BF17-33C69C025387}" name="Rückübersetzung in BE-Einheit von NaiS-Zukunft" dataDxfId="5"/>
@@ -5471,9 +5483,9 @@
   </sheetPr>
   <dimension ref="A1:BG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U473" sqref="U473"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,7 +5539,7 @@
         <v>79</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>431</v>
@@ -5659,7 +5671,7 @@
         <v>493</v>
       </c>
       <c r="AY1" s="28" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>385</v>
@@ -8515,7 +8527,7 @@
         <v>223</v>
       </c>
       <c r="AO25" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AP25" s="17" t="s">
         <v>223</v>
@@ -17667,7 +17679,7 @@
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AP103" s="17"/>
       <c r="AQ103" s="17">
@@ -23369,7 +23381,7 @@
         <v>223</v>
       </c>
       <c r="AQ151" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR151" s="17"/>
       <c r="AS151" s="33"/>
@@ -28601,7 +28613,7 @@
         <v>223</v>
       </c>
       <c r="AQ195" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AR195" s="17" t="s">
         <v>223</v>
@@ -29696,7 +29708,7 @@
         <v>223</v>
       </c>
       <c r="AQ204" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AR204" s="17"/>
       <c r="AS204" s="33"/>
@@ -30543,7 +30555,7 @@
         <v>223</v>
       </c>
       <c r="AQ211" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AR211" s="17"/>
       <c r="AS211" s="33"/>
@@ -30664,7 +30676,7 @@
         <v>223</v>
       </c>
       <c r="AQ212" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR212" s="17" t="s">
         <v>223</v>
@@ -30787,7 +30799,7 @@
         <v>223</v>
       </c>
       <c r="AQ213" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AR213" s="17"/>
       <c r="AS213" s="33"/>
@@ -31035,7 +31047,7 @@
         <v>223</v>
       </c>
       <c r="AQ215" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AR215" s="17"/>
       <c r="AS215" s="33"/>
@@ -32211,7 +32223,7 @@
       </c>
       <c r="AP225" s="17"/>
       <c r="AQ225" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AR225" s="17" t="s">
         <v>223</v>
@@ -32800,7 +32812,7 @@
         <v>223</v>
       </c>
       <c r="AQ230" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR230" s="17"/>
       <c r="AS230" s="33"/>
@@ -37815,7 +37827,7 @@
       </c>
       <c r="AN273" s="17"/>
       <c r="AO273" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AP273" s="17" t="s">
         <v>223</v>
@@ -38045,7 +38057,7 @@
       </c>
       <c r="AN275" s="17"/>
       <c r="AO275" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AP275" s="17"/>
       <c r="AQ275" s="17" t="s">
@@ -47387,7 +47399,7 @@
         <v>223</v>
       </c>
       <c r="AQ351" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR351" s="17"/>
       <c r="AS351" s="33" t="s">
@@ -47403,7 +47415,7 @@
         <v>241</v>
       </c>
       <c r="AY351" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ351" s="17" t="s">
         <v>297</v>
@@ -47512,7 +47524,7 @@
         <v>223</v>
       </c>
       <c r="AQ352" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR352" s="17"/>
       <c r="AS352" s="33" t="s">
@@ -47528,7 +47540,7 @@
         <v>241</v>
       </c>
       <c r="AY352" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ352" s="17" t="s">
         <v>297</v>
@@ -47655,7 +47667,7 @@
         <v>241</v>
       </c>
       <c r="AY353" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ353" s="17" t="s">
         <v>297</v>
@@ -47784,7 +47796,7 @@
         <v>241</v>
       </c>
       <c r="AY354" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ354" s="17" t="s">
         <v>297</v>
@@ -47913,7 +47925,7 @@
         <v>241</v>
       </c>
       <c r="AY355" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ355" s="17" t="s">
         <v>297</v>
@@ -47939,7 +47951,7 @@
       </c>
       <c r="C356" s="22"/>
       <c r="D356" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E356" s="19" t="s">
         <v>481</v>
@@ -48022,7 +48034,7 @@
         <v>242</v>
       </c>
       <c r="AY356" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AZ356" s="39" t="s">
         <v>291</v>
@@ -48137,7 +48149,7 @@
         <v>249</v>
       </c>
       <c r="AY357" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ357" s="22" t="s">
         <v>296</v>
@@ -48246,7 +48258,7 @@
         <v>223</v>
       </c>
       <c r="AQ358" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR358" s="22"/>
       <c r="AS358" s="22" t="s">
@@ -48262,7 +48274,7 @@
         <v>241</v>
       </c>
       <c r="AY358" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ358" s="22" t="s">
         <v>297</v>
@@ -48389,7 +48401,7 @@
         <v>241</v>
       </c>
       <c r="AY359" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ359" s="22" t="s">
         <v>297</v>
@@ -48516,7 +48528,7 @@
         <v>241</v>
       </c>
       <c r="AY360" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ360" s="39" t="s">
         <v>297</v>
@@ -48627,7 +48639,7 @@
         <v>223</v>
       </c>
       <c r="AQ361" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR361" s="47" t="s">
         <v>223</v>
@@ -48645,7 +48657,7 @@
         <v>241</v>
       </c>
       <c r="AY361" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ361" s="39" t="s">
         <v>297</v>
@@ -48672,13 +48684,13 @@
         <v>178</v>
       </c>
       <c r="E362" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F362" s="18" t="s">
         <v>178</v>
       </c>
       <c r="G362" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H362" s="18" t="s">
         <v>401</v>
@@ -48760,7 +48772,7 @@
         <v>266</v>
       </c>
       <c r="AY362" s="18" t="s">
-        <v>298</v>
+        <v>551</v>
       </c>
       <c r="AZ362" s="18" t="s">
         <v>298</v>
@@ -48783,13 +48795,13 @@
         <v>83</v>
       </c>
       <c r="E363" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F363" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G363" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H363" s="18" t="s">
         <v>401</v>
@@ -48871,7 +48883,7 @@
         <v>234</v>
       </c>
       <c r="AY363" s="18" t="s">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="AZ363" s="18" t="s">
         <v>83</v>
@@ -48891,16 +48903,16 @@
       </c>
       <c r="C364" s="23"/>
       <c r="D364" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E364" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F364" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G364" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H364" s="18" t="s">
         <v>401</v>
@@ -48990,7 +49002,7 @@
         <v>235</v>
       </c>
       <c r="AY364" s="18" t="s">
-        <v>295</v>
+        <v>513</v>
       </c>
       <c r="AZ364" s="18" t="s">
         <v>295</v>
@@ -49105,7 +49117,7 @@
         <v>234</v>
       </c>
       <c r="AY365" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ365" s="17" t="s">
         <v>284</v>
@@ -49224,7 +49236,7 @@
         <v>234</v>
       </c>
       <c r="AY366" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ366" s="17" t="s">
         <v>284</v>
@@ -49349,7 +49361,7 @@
         <v>234</v>
       </c>
       <c r="AY367" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ367" s="17" t="s">
         <v>284</v>
@@ -49458,7 +49470,7 @@
         <v>223</v>
       </c>
       <c r="AQ368" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR368" s="34" t="s">
         <v>223</v>
@@ -49474,7 +49486,7 @@
         <v>234</v>
       </c>
       <c r="AY368" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ368" s="17" t="s">
         <v>8</v>
@@ -49581,7 +49593,7 @@
         <v>223</v>
       </c>
       <c r="AQ369" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AR369" s="17" t="s">
         <v>223</v>
@@ -49597,7 +49609,7 @@
         <v>248</v>
       </c>
       <c r="AY369" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ369" s="17" t="s">
         <v>279</v>
@@ -49702,7 +49714,7 @@
         <v>223</v>
       </c>
       <c r="AQ370" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AR370" s="17"/>
       <c r="AS370" s="33"/>
@@ -49716,7 +49728,7 @@
         <v>242</v>
       </c>
       <c r="AY370" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ370" s="17" t="s">
         <v>279</v>
@@ -49819,7 +49831,7 @@
       </c>
       <c r="AP371" s="17"/>
       <c r="AQ371" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AR371" s="34" t="s">
         <v>223</v>
@@ -49835,7 +49847,7 @@
         <v>242</v>
       </c>
       <c r="AY371" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ371" s="17" t="s">
         <v>279</v>
@@ -49950,7 +49962,7 @@
         <v>235</v>
       </c>
       <c r="AY372" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ372" s="17" t="s">
         <v>292</v>
@@ -50065,7 +50077,7 @@
         <v>239</v>
       </c>
       <c r="AY373" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ373" s="17" t="s">
         <v>280</v>
@@ -50184,7 +50196,7 @@
         <v>239</v>
       </c>
       <c r="AY374" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AZ374" s="17" t="s">
         <v>281</v>
@@ -50295,7 +50307,7 @@
         <v>239</v>
       </c>
       <c r="AY375" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AZ375" s="17" t="s">
         <v>90</v>
@@ -50396,7 +50408,7 @@
         <v>223</v>
       </c>
       <c r="AQ376" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AR376" s="34" t="s">
         <v>223</v>
@@ -50412,7 +50424,7 @@
         <v>239</v>
       </c>
       <c r="AY376" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AZ376" s="17" t="s">
         <v>90</v>
@@ -50529,7 +50541,7 @@
         <v>239</v>
       </c>
       <c r="AY377" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AZ377" s="17" t="s">
         <v>281</v>
@@ -50648,7 +50660,7 @@
         <v>239</v>
       </c>
       <c r="AY378" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AZ378" s="17" t="s">
         <v>281</v>
@@ -50759,7 +50771,7 @@
         <v>242</v>
       </c>
       <c r="AY379" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ379" s="17" t="s">
         <v>279</v>
@@ -50880,7 +50892,7 @@
         <v>242</v>
       </c>
       <c r="AY380" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ380" s="17" t="s">
         <v>279</v>
@@ -50979,7 +50991,7 @@
         <v>223</v>
       </c>
       <c r="AQ381" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AR381" s="17"/>
       <c r="AS381" s="33"/>
@@ -50993,7 +51005,7 @@
         <v>242</v>
       </c>
       <c r="AY381" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ381" s="17" t="s">
         <v>279</v>
@@ -51102,7 +51114,7 @@
         <v>243</v>
       </c>
       <c r="AY382" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ382" s="17" t="s">
         <v>279</v>
@@ -51215,7 +51227,7 @@
         <v>243</v>
       </c>
       <c r="AY383" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ383" s="17" t="s">
         <v>279</v>
@@ -51326,7 +51338,7 @@
         <v>234</v>
       </c>
       <c r="AY384" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ384" s="17" t="s">
         <v>284</v>
@@ -51437,7 +51449,7 @@
         <v>234</v>
       </c>
       <c r="AY385" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ385" s="17" t="s">
         <v>284</v>
@@ -51552,7 +51564,7 @@
         <v>234</v>
       </c>
       <c r="AY386" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ386" s="17" t="s">
         <v>284</v>
@@ -51663,7 +51675,7 @@
         <v>243</v>
       </c>
       <c r="AY387" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ387" s="17" t="s">
         <v>284</v>
@@ -51774,7 +51786,7 @@
         <v>243</v>
       </c>
       <c r="AY388" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ388" s="17" t="s">
         <v>284</v>
@@ -51897,7 +51909,7 @@
         <v>243</v>
       </c>
       <c r="AY389" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ389" s="17" t="s">
         <v>284</v>
@@ -52020,7 +52032,7 @@
         <v>243</v>
       </c>
       <c r="AY390" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ390" s="17" t="s">
         <v>284</v>
@@ -52133,7 +52145,7 @@
         <v>243</v>
       </c>
       <c r="AY391" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ391" s="17" t="s">
         <v>284</v>
@@ -52252,7 +52264,7 @@
         <v>239</v>
       </c>
       <c r="AY392" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ392" s="17" t="s">
         <v>280</v>
@@ -52373,7 +52385,7 @@
         <v>239</v>
       </c>
       <c r="AY393" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ393" s="17" t="s">
         <v>280</v>
@@ -52478,7 +52490,7 @@
         <v>223</v>
       </c>
       <c r="AQ394" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR394" s="17"/>
       <c r="AS394" s="33"/>
@@ -52492,7 +52504,7 @@
         <v>234</v>
       </c>
       <c r="AY394" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ394" s="17" t="s">
         <v>8</v>
@@ -52609,7 +52621,7 @@
         <v>242</v>
       </c>
       <c r="AY395" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AZ395" s="17" t="s">
         <v>283</v>
@@ -52712,7 +52724,7 @@
         <v>223</v>
       </c>
       <c r="AQ396" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AR396" s="17"/>
       <c r="AS396" s="33"/>
@@ -52726,7 +52738,7 @@
         <v>248</v>
       </c>
       <c r="AY396" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ396" s="17" t="s">
         <v>289</v>
@@ -52843,7 +52855,7 @@
         <v>249</v>
       </c>
       <c r="AY397" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ397" s="17" t="s">
         <v>284</v>
@@ -52960,7 +52972,7 @@
         <v>247</v>
       </c>
       <c r="AY398" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AZ398" s="17" t="s">
         <v>117</v>
@@ -53077,7 +53089,7 @@
         <v>234</v>
       </c>
       <c r="AY399" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AZ399" s="17" t="s">
         <v>65</v>
@@ -53198,7 +53210,7 @@
         <v>234</v>
       </c>
       <c r="AY400" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AZ400" s="17" t="s">
         <v>65</v>
@@ -53313,7 +53325,7 @@
         <v>247</v>
       </c>
       <c r="AY401" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AZ401" s="17" t="s">
         <v>117</v>
@@ -53424,7 +53436,7 @@
         <v>234</v>
       </c>
       <c r="AY402" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ402" s="17" t="s">
         <v>284</v>
@@ -53547,7 +53559,7 @@
         <v>239</v>
       </c>
       <c r="AY403" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ403" s="17" t="s">
         <v>55</v>
@@ -53660,7 +53672,7 @@
         <v>239</v>
       </c>
       <c r="AY404" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ404" s="17" t="s">
         <v>280</v>
@@ -53775,7 +53787,7 @@
         <v>235</v>
       </c>
       <c r="AY405" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ405" s="17" t="s">
         <v>292</v>
@@ -53890,7 +53902,7 @@
         <v>239</v>
       </c>
       <c r="AY406" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ406" s="17" t="s">
         <v>280</v>
@@ -54005,7 +54017,7 @@
         <v>239</v>
       </c>
       <c r="AY407" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ407" s="17" t="s">
         <v>280</v>
@@ -54128,7 +54140,7 @@
         <v>239</v>
       </c>
       <c r="AY408" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ408" s="17" t="s">
         <v>280</v>
@@ -54237,7 +54249,7 @@
       <c r="AS409" s="33"/>
       <c r="AT409" s="33"/>
       <c r="AU409" s="33"/>
-      <c r="AV409" s="16" t="s">
+      <c r="AV409" s="51" t="s">
         <v>375</v>
       </c>
       <c r="AW409" s="33" t="s">
@@ -54247,7 +54259,7 @@
         <v>239</v>
       </c>
       <c r="AY409" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ409" s="17" t="s">
         <v>280</v>
@@ -54358,7 +54370,7 @@
       <c r="AS410" s="33"/>
       <c r="AT410" s="33"/>
       <c r="AU410" s="33"/>
-      <c r="AV410" s="16" t="s">
+      <c r="AV410" s="51" t="s">
         <v>375</v>
       </c>
       <c r="AW410" s="33" t="s">
@@ -54368,7 +54380,7 @@
         <v>239</v>
       </c>
       <c r="AY410" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ410" s="17" t="s">
         <v>280</v>
@@ -54487,7 +54499,7 @@
         <v>239</v>
       </c>
       <c r="AY411" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ411" s="17" t="s">
         <v>280</v>
@@ -54610,7 +54622,7 @@
         <v>247</v>
       </c>
       <c r="AY412" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ412" s="17" t="s">
         <v>8</v>
@@ -54725,7 +54737,7 @@
         <v>235</v>
       </c>
       <c r="AY413" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ413" s="17" t="s">
         <v>292</v>
@@ -54846,7 +54858,7 @@
         <v>235</v>
       </c>
       <c r="AY414" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ414" s="17" t="s">
         <v>292</v>
@@ -54965,7 +54977,7 @@
         <v>235</v>
       </c>
       <c r="AY415" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ415" s="17" t="s">
         <v>292</v>
@@ -55070,7 +55082,7 @@
         <v>223</v>
       </c>
       <c r="AQ416" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AR416" s="34" t="s">
         <v>223</v>
@@ -55086,7 +55098,7 @@
         <v>235</v>
       </c>
       <c r="AY416" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ416" s="17" t="s">
         <v>60</v>
@@ -55207,7 +55219,7 @@
         <v>235</v>
       </c>
       <c r="AY417" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ417" s="17" t="s">
         <v>60</v>
@@ -55326,7 +55338,7 @@
         <v>235</v>
       </c>
       <c r="AY418" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ418" s="40">
         <v>27</v>
@@ -55445,7 +55457,7 @@
         <v>235</v>
       </c>
       <c r="AY419" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ419" s="17" t="s">
         <v>60</v>
@@ -55566,7 +55578,7 @@
         <v>235</v>
       </c>
       <c r="AY420" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ420" s="17" t="s">
         <v>60</v>
@@ -55685,7 +55697,7 @@
         <v>235</v>
       </c>
       <c r="AY421" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ421" s="40">
         <v>27</v>
@@ -55804,7 +55816,7 @@
         <v>235</v>
       </c>
       <c r="AY422" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ422" s="17" t="s">
         <v>292</v>
@@ -55923,7 +55935,7 @@
         <v>235</v>
       </c>
       <c r="AY423" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ423" s="17" t="s">
         <v>292</v>
@@ -56044,7 +56056,7 @@
         <v>234</v>
       </c>
       <c r="AY424" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ424" s="17" t="s">
         <v>284</v>
@@ -56165,7 +56177,7 @@
         <v>234</v>
       </c>
       <c r="AY425" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ425" s="17" t="s">
         <v>284</v>
@@ -56288,7 +56300,7 @@
         <v>239</v>
       </c>
       <c r="AY426" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ426" s="17" t="s">
         <v>284</v>
@@ -56389,7 +56401,7 @@
       </c>
       <c r="AP427" s="17"/>
       <c r="AQ427" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AR427" s="17" t="s">
         <v>223</v>
@@ -56405,7 +56417,7 @@
         <v>248</v>
       </c>
       <c r="AY427" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AZ427" s="17" t="s">
         <v>146</v>
@@ -56508,7 +56520,7 @@
         <v>223</v>
       </c>
       <c r="AQ428" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AR428" s="17"/>
       <c r="AS428" s="33"/>
@@ -56522,7 +56534,7 @@
         <v>248</v>
       </c>
       <c r="AY428" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ428" s="17" t="s">
         <v>289</v>
@@ -56643,7 +56655,7 @@
         <v>248</v>
       </c>
       <c r="AY429" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ429" s="17" t="s">
         <v>289</v>
@@ -56764,7 +56776,7 @@
         <v>242</v>
       </c>
       <c r="AY430" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ430" s="17" t="s">
         <v>289</v>
@@ -56873,7 +56885,7 @@
         <v>242</v>
       </c>
       <c r="AY431" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AZ431" s="17" t="s">
         <v>291</v>
@@ -56984,7 +56996,7 @@
         <v>235</v>
       </c>
       <c r="AY432" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ432" s="17" t="s">
         <v>295</v>
@@ -57089,7 +57101,7 @@
         <v>223</v>
       </c>
       <c r="AQ433" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AR433" s="17" t="s">
         <v>223</v>
@@ -57105,7 +57117,7 @@
         <v>235</v>
       </c>
       <c r="AY433" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ433" s="17" t="s">
         <v>292</v>
@@ -57224,7 +57236,7 @@
         <v>235</v>
       </c>
       <c r="AY434" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ434" s="17" t="s">
         <v>292</v>
@@ -57343,7 +57355,7 @@
         <v>235</v>
       </c>
       <c r="AY435" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ435" s="17" t="s">
         <v>292</v>
@@ -57462,7 +57474,7 @@
         <v>235</v>
       </c>
       <c r="AY436" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ436" s="17" t="s">
         <v>292</v>
@@ -57581,7 +57593,7 @@
         <v>235</v>
       </c>
       <c r="AY437" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ437" s="17" t="s">
         <v>292</v>
@@ -57700,7 +57712,7 @@
         <v>235</v>
       </c>
       <c r="AY438" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ438" s="17" t="s">
         <v>292</v>
@@ -57819,7 +57831,7 @@
         <v>235</v>
       </c>
       <c r="AY439" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ439" s="17" t="s">
         <v>292</v>
@@ -57926,7 +57938,7 @@
         <v>223</v>
       </c>
       <c r="AQ440" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR440" s="17"/>
       <c r="AS440" s="33"/>
@@ -57940,7 +57952,7 @@
         <v>235</v>
       </c>
       <c r="AY440" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ440" s="17" t="s">
         <v>292</v>
@@ -58059,7 +58071,7 @@
         <v>235</v>
       </c>
       <c r="AY441" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ441" s="17" t="s">
         <v>292</v>
@@ -58178,7 +58190,7 @@
         <v>235</v>
       </c>
       <c r="AY442" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ442" s="17" t="s">
         <v>292</v>
@@ -58299,7 +58311,7 @@
         <v>235</v>
       </c>
       <c r="AY443" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ443" s="17" t="s">
         <v>292</v>
@@ -58418,7 +58430,7 @@
         <v>235</v>
       </c>
       <c r="AY444" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ444" s="17" t="s">
         <v>292</v>
@@ -58537,7 +58549,7 @@
         <v>235</v>
       </c>
       <c r="AY445" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ445" s="17" t="s">
         <v>292</v>
@@ -58640,7 +58652,7 @@
         <v>223</v>
       </c>
       <c r="AQ446" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AR446" s="17"/>
       <c r="AS446" s="33"/>
@@ -58654,7 +58666,7 @@
         <v>235</v>
       </c>
       <c r="AY446" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ446" s="17" t="s">
         <v>60</v>
@@ -58773,7 +58785,7 @@
         <v>235</v>
       </c>
       <c r="AY447" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ447" s="17" t="s">
         <v>60</v>
@@ -58892,7 +58904,7 @@
         <v>235</v>
       </c>
       <c r="AY448" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ448" s="40">
         <v>27</v>
@@ -59011,7 +59023,7 @@
         <v>239</v>
       </c>
       <c r="AY449" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ449" s="17" t="s">
         <v>280</v>
@@ -59128,7 +59140,7 @@
         <v>398</v>
       </c>
       <c r="AY450" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ450" s="17" t="s">
         <v>294</v>
@@ -59227,7 +59239,7 @@
         <v>223</v>
       </c>
       <c r="AQ451" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR451" s="17" t="s">
         <v>223</v>
@@ -59243,7 +59255,7 @@
         <v>235</v>
       </c>
       <c r="AY451" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ451" s="17" t="s">
         <v>294</v>
@@ -59360,7 +59372,7 @@
         <v>249</v>
       </c>
       <c r="AY452" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ452" s="17" t="s">
         <v>296</v>
@@ -59455,7 +59467,7 @@
       </c>
       <c r="AP453" s="17"/>
       <c r="AQ453" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AR453" s="17" t="s">
         <v>223</v>
@@ -59471,7 +59483,7 @@
         <v>235</v>
       </c>
       <c r="AY453" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ453" s="40" t="s">
         <v>179</v>
@@ -59576,7 +59588,7 @@
         <v>223</v>
       </c>
       <c r="AQ454" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR454" s="17"/>
       <c r="AS454" s="33"/>
@@ -59590,7 +59602,7 @@
         <v>235</v>
       </c>
       <c r="AY454" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ454" s="40" t="s">
         <v>179</v>
@@ -59711,7 +59723,7 @@
         <v>249</v>
       </c>
       <c r="AY455" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ455" s="40" t="s">
         <v>198</v>
@@ -59832,7 +59844,7 @@
         <v>249</v>
       </c>
       <c r="AY456" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ456" s="40" t="s">
         <v>198</v>
@@ -59937,7 +59949,7 @@
       </c>
       <c r="AP457" s="17"/>
       <c r="AQ457" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR457" s="17"/>
       <c r="AS457" s="33" t="s">
@@ -59953,7 +59965,7 @@
         <v>239</v>
       </c>
       <c r="AY457" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ457" s="40">
         <v>62</v>
@@ -60014,7 +60026,7 @@
       <c r="W458" s="40"/>
       <c r="X458" s="33"/>
       <c r="Y458" s="33"/>
-      <c r="Z458" s="40"/>
+      <c r="Z458" s="44"/>
       <c r="AA458" s="40" t="s">
         <v>223</v>
       </c>
@@ -60074,7 +60086,7 @@
         <v>239</v>
       </c>
       <c r="AY458" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ458" s="40" t="s">
         <v>198</v>
@@ -60135,7 +60147,7 @@
       <c r="W459" s="40"/>
       <c r="X459" s="33"/>
       <c r="Y459" s="33"/>
-      <c r="Z459" s="40"/>
+      <c r="Z459" s="44"/>
       <c r="AA459" s="40" t="s">
         <v>223</v>
       </c>
@@ -60179,7 +60191,7 @@
       </c>
       <c r="AP459" s="17"/>
       <c r="AQ459" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR459" s="17"/>
       <c r="AS459" s="33" t="s">
@@ -60195,7 +60207,7 @@
         <v>239</v>
       </c>
       <c r="AY459" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ459" s="40">
         <v>62</v>
@@ -60256,7 +60268,7 @@
       <c r="W460" s="17"/>
       <c r="X460" s="33"/>
       <c r="Y460" s="33"/>
-      <c r="Z460" s="17" t="s">
+      <c r="Z460" s="34" t="s">
         <v>223</v>
       </c>
       <c r="AA460" s="17" t="s">
@@ -60324,7 +60336,7 @@
         <v>247</v>
       </c>
       <c r="AY460" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ460" s="17" t="s">
         <v>73</v>
@@ -60385,7 +60397,7 @@
       <c r="W461" s="17"/>
       <c r="X461" s="33"/>
       <c r="Y461" s="33"/>
-      <c r="Z461" s="17"/>
+      <c r="Z461" s="34"/>
       <c r="AA461" s="17"/>
       <c r="AB461" s="17" t="s">
         <v>45</v>
@@ -60447,7 +60459,7 @@
         <v>247</v>
       </c>
       <c r="AY461" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ461" s="17" t="s">
         <v>73</v>
@@ -60510,7 +60522,7 @@
       <c r="W462" s="17"/>
       <c r="X462" s="33"/>
       <c r="Y462" s="33"/>
-      <c r="Z462" s="17"/>
+      <c r="Z462" s="34"/>
       <c r="AA462" s="17"/>
       <c r="AB462" s="17" t="s">
         <v>47</v>
@@ -60570,7 +60582,7 @@
         <v>247</v>
       </c>
       <c r="AY462" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ462" s="17" t="s">
         <v>73</v>
@@ -60633,7 +60645,7 @@
       <c r="W463" s="17"/>
       <c r="X463" s="33"/>
       <c r="Y463" s="33"/>
-      <c r="Z463" s="17"/>
+      <c r="Z463" s="34"/>
       <c r="AA463" s="17"/>
       <c r="AB463" s="17" t="s">
         <v>45</v>
@@ -60695,7 +60707,7 @@
         <v>247</v>
       </c>
       <c r="AY463" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ463" s="17" t="s">
         <v>73</v>
@@ -60756,7 +60768,7 @@
       <c r="W464" s="17"/>
       <c r="X464" s="17"/>
       <c r="Y464" s="17"/>
-      <c r="Z464" s="17" t="s">
+      <c r="Z464" s="34" t="s">
         <v>223</v>
       </c>
       <c r="AA464" s="17" t="s">
@@ -60820,7 +60832,7 @@
         <v>248</v>
       </c>
       <c r="AY464" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ464" s="17" t="s">
         <v>84</v>
@@ -60881,7 +60893,7 @@
       <c r="W465" s="17"/>
       <c r="X465" s="17"/>
       <c r="Y465" s="17"/>
-      <c r="Z465" s="17" t="s">
+      <c r="Z465" s="34" t="s">
         <v>223</v>
       </c>
       <c r="AA465" s="17" t="s">
@@ -60947,7 +60959,7 @@
         <v>248</v>
       </c>
       <c r="AY465" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ465" s="17" t="s">
         <v>84</v>
@@ -61052,7 +61064,7 @@
         <v>223</v>
       </c>
       <c r="AQ466" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR466" s="17" t="s">
         <v>223</v>
@@ -61072,7 +61084,7 @@
         <v>417</v>
       </c>
       <c r="AY466" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ466" s="17" t="s">
         <v>84</v>
@@ -61101,13 +61113,13 @@
         <v>159</v>
       </c>
       <c r="E467" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F467" s="49" t="s">
         <v>159</v>
       </c>
       <c r="G467" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H467" s="18">
         <v>3</v>
@@ -61183,7 +61195,7 @@
         <v>234</v>
       </c>
       <c r="AY467" s="18" t="s">
-        <v>159</v>
+        <v>553</v>
       </c>
       <c r="AZ467" s="18" t="s">
         <v>159</v>

--- a/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
+++ b/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\Parametertabelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ccwbe_kohler_MA\ccwbe_kohler_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFC58D-E038-438A-9B24-263F4AFC1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8496737-3A01-487A-950A-5F480A697C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9654" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9658" uniqueCount="556">
   <si>
     <t>Gruendigkeit</t>
   </si>
@@ -2018,6 +2018,9 @@
   <si>
     <t>Anford_kol</t>
   </si>
+  <si>
+    <t>7S - colline Variante</t>
+  </si>
 </sst>
 </file>
 
@@ -2518,7 +2521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2659,6 +2662,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2705,7 +2769,7 @@
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2845,14 +2909,47 @@
     <xf numFmtId="0" fontId="34" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4979,6 +5076,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -5016,13 +5120,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -5043,13 +5140,14 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{95633C73-1CCA-463B-980A-0F586D805D5E}"/>
+    <tableStyle name="Table Style 2" pivot="0" count="0" xr9:uid="{9F9DA206-877F-4028-839E-52B16CB96AB5}"/>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FF9999FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
@@ -5145,8 +5243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}" name="Table1" displayName="Table1" ref="A1:BG466" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:BG466" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}" name="Table1" displayName="Table1" ref="A1:BG468" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:BG468" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG466">
     <sortCondition ref="A1:A466"/>
   </sortState>
@@ -5481,11 +5579,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BG467"/>
+  <dimension ref="A1:BG468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH27" sqref="AH27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q473" sqref="Q473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32844,7 +32942,7 @@
       <c r="BG230" s="40"/>
     </row>
     <row r="231" spans="1:59" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="50">
+      <c r="A231" s="49">
         <v>176</v>
       </c>
       <c r="B231" s="33">
@@ -48097,8 +48195,8 @@
       <c r="Y357" s="22"/>
       <c r="Z357" s="22"/>
       <c r="AA357" s="22"/>
-      <c r="AB357" s="22" t="s">
-        <v>80</v>
+      <c r="AB357" s="51" t="s">
+        <v>8</v>
       </c>
       <c r="AC357" s="22"/>
       <c r="AD357" s="22" t="s">
@@ -48126,7 +48224,7 @@
         <v>6</v>
       </c>
       <c r="AN357" s="22"/>
-      <c r="AO357" s="22" t="s">
+      <c r="AO357" s="51">
         <v>9</v>
       </c>
       <c r="AP357" s="22" t="s">
@@ -48699,12 +48797,8 @@
       <c r="J362" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="K362" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="L362" s="43" t="s">
-        <v>223</v>
-      </c>
+      <c r="K362" s="43"/>
+      <c r="L362" s="43"/>
       <c r="M362" s="43"/>
       <c r="N362" s="43"/>
       <c r="O362" s="43"/>
@@ -48713,12 +48807,8 @@
       <c r="R362" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="S362" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="T362" s="43" t="s">
-        <v>223</v>
-      </c>
+      <c r="S362" s="43"/>
+      <c r="T362" s="43"/>
       <c r="U362" s="43"/>
       <c r="V362" s="43"/>
       <c r="W362" s="43"/>
@@ -48820,12 +48910,8 @@
       <c r="R363" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="S363" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="T363" s="18" t="s">
-        <v>223</v>
-      </c>
+      <c r="S363" s="18"/>
+      <c r="T363" s="18"/>
       <c r="U363" s="18"/>
       <c r="V363" s="18"/>
       <c r="W363" s="18"/>
@@ -48921,12 +49007,8 @@
       <c r="J364" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="K364" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="L364" s="43" t="s">
-        <v>223</v>
-      </c>
+      <c r="K364" s="43"/>
+      <c r="L364" s="43"/>
       <c r="M364" s="43"/>
       <c r="N364" s="43"/>
       <c r="O364" s="43"/>
@@ -48935,12 +49017,8 @@
       <c r="R364" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="S364" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="T364" s="43" t="s">
-        <v>223</v>
-      </c>
+      <c r="S364" s="43"/>
+      <c r="T364" s="43"/>
       <c r="U364" s="43"/>
       <c r="V364" s="43"/>
       <c r="W364" s="43"/>
@@ -51581,7 +51659,7 @@
       <c r="BF386" s="17"/>
       <c r="BG386" s="17"/>
     </row>
-    <row r="387" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="33">
         <v>377</v>
       </c>
@@ -51692,7 +51770,7 @@
       <c r="BF387" s="40"/>
       <c r="BG387" s="40"/>
     </row>
-    <row r="388" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="33">
         <v>378</v>
       </c>
@@ -51803,7 +51881,7 @@
       <c r="BF388" s="40"/>
       <c r="BG388" s="40"/>
     </row>
-    <row r="389" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="33">
         <v>379</v>
       </c>
@@ -51926,7 +52004,7 @@
       <c r="BF389" s="40"/>
       <c r="BG389" s="40"/>
     </row>
-    <row r="390" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="33">
         <v>380</v>
       </c>
@@ -52049,7 +52127,7 @@
       <c r="BF390" s="40"/>
       <c r="BG390" s="40"/>
     </row>
-    <row r="391" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="33">
         <v>381</v>
       </c>
@@ -54249,7 +54327,7 @@
       <c r="AS409" s="33"/>
       <c r="AT409" s="33"/>
       <c r="AU409" s="33"/>
-      <c r="AV409" s="51" t="s">
+      <c r="AV409" s="50" t="s">
         <v>375</v>
       </c>
       <c r="AW409" s="33" t="s">
@@ -54370,7 +54448,7 @@
       <c r="AS410" s="33"/>
       <c r="AT410" s="33"/>
       <c r="AU410" s="33"/>
-      <c r="AV410" s="51" t="s">
+      <c r="AV410" s="50" t="s">
         <v>375</v>
       </c>
       <c r="AW410" s="33" t="s">
@@ -61102,111 +61180,218 @@
       <c r="BG466" s="17"/>
     </row>
     <row r="467" spans="1:59" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="23"/>
-      <c r="B467" s="23">
+      <c r="A467" s="52"/>
+      <c r="B467" s="33">
         <v>466</v>
       </c>
-      <c r="C467" s="23" t="s">
+      <c r="C467" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D467" s="43" t="s">
+      <c r="D467" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E467" s="42" t="s">
+      <c r="E467" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="F467" s="49" t="s">
+      <c r="F467" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G467" s="42" t="s">
+      <c r="G467" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="H467" s="18">
+      <c r="H467" s="17">
         <v>3</v>
       </c>
-      <c r="I467" s="18"/>
+      <c r="I467" s="17"/>
       <c r="J467" s="42"/>
-      <c r="K467" s="43"/>
-      <c r="L467" s="43"/>
-      <c r="M467" s="43"/>
-      <c r="N467" s="43"/>
-      <c r="O467" s="43"/>
-      <c r="P467" s="43"/>
-      <c r="Q467" s="43"/>
+      <c r="K467" s="33"/>
+      <c r="L467" s="33"/>
+      <c r="M467" s="33"/>
+      <c r="N467" s="33"/>
+      <c r="O467" s="33"/>
+      <c r="P467" s="33"/>
+      <c r="Q467" s="33"/>
       <c r="R467" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="S467" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="T467" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="U467" s="43"/>
-      <c r="V467" s="43"/>
-      <c r="W467" s="43"/>
-      <c r="X467" s="43"/>
-      <c r="Y467" s="43"/>
-      <c r="Z467" s="43"/>
-      <c r="AA467" s="43"/>
-      <c r="AB467" s="18" t="s">
+      <c r="S467" s="33"/>
+      <c r="T467" s="33"/>
+      <c r="U467" s="33"/>
+      <c r="V467" s="33"/>
+      <c r="W467" s="33"/>
+      <c r="X467" s="33"/>
+      <c r="Y467" s="33"/>
+      <c r="Z467" s="33"/>
+      <c r="AA467" s="33"/>
+      <c r="AB467" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AC467" s="18"/>
-      <c r="AD467" s="18" t="s">
+      <c r="AC467" s="17"/>
+      <c r="AD467" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AE467" s="18"/>
-      <c r="AF467" s="23">
+      <c r="AE467" s="17"/>
+      <c r="AF467" s="33">
         <v>120</v>
       </c>
-      <c r="AG467" s="23">
+      <c r="AG467" s="33">
         <v>300</v>
       </c>
-      <c r="AH467" s="23"/>
-      <c r="AI467" s="23">
+      <c r="AH467" s="33"/>
+      <c r="AI467" s="33">
         <v>50</v>
       </c>
-      <c r="AJ467" s="23">
+      <c r="AJ467" s="33">
         <v>150</v>
       </c>
-      <c r="AK467" s="18"/>
-      <c r="AL467" s="18"/>
-      <c r="AM467" s="18" t="s">
+      <c r="AK467" s="17"/>
+      <c r="AL467" s="17"/>
+      <c r="AM467" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AN467" s="18"/>
-      <c r="AO467" s="18" t="s">
+      <c r="AN467" s="17"/>
+      <c r="AO467" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AP467" s="18"/>
+      <c r="AP467" s="17"/>
       <c r="AQ467" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AR467" s="18"/>
-      <c r="AS467" s="23"/>
-      <c r="AT467" s="23"/>
-      <c r="AU467" s="23"/>
+      <c r="AR467" s="17"/>
+      <c r="AS467" s="33"/>
+      <c r="AT467" s="33"/>
+      <c r="AU467" s="33"/>
       <c r="AV467" s="16"/>
-      <c r="AW467" s="23" t="s">
+      <c r="AW467" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AX467" s="23" t="s">
+      <c r="AX467" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AY467" s="18" t="s">
+      <c r="AY467" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="AZ467" s="18" t="s">
+      <c r="AZ467" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="BA467" s="18"/>
-      <c r="BB467" s="49"/>
-      <c r="BC467" s="18"/>
-      <c r="BD467" s="18"/>
-      <c r="BE467" s="18"/>
-      <c r="BF467" s="43"/>
-      <c r="BG467" s="43"/>
+      <c r="BA467" s="17"/>
+      <c r="BB467" s="17"/>
+      <c r="BC467" s="17"/>
+      <c r="BD467" s="17"/>
+      <c r="BE467" s="17"/>
+      <c r="BF467" s="33"/>
+      <c r="BG467" s="53"/>
+    </row>
+    <row r="468" spans="1:59" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="54">
+        <v>180</v>
+      </c>
+      <c r="B468" s="55">
+        <v>179</v>
+      </c>
+      <c r="C468" s="55">
+        <v>63</v>
+      </c>
+      <c r="D468" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E468" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="F468" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G468" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="H468" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="I468" s="56"/>
+      <c r="J468" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="K468" s="55"/>
+      <c r="L468" s="55"/>
+      <c r="M468" s="55"/>
+      <c r="N468" s="55"/>
+      <c r="O468" s="55"/>
+      <c r="P468" s="55"/>
+      <c r="Q468" s="55"/>
+      <c r="R468" s="62"/>
+      <c r="S468" s="55"/>
+      <c r="T468" s="55"/>
+      <c r="U468" s="55"/>
+      <c r="V468" s="55"/>
+      <c r="W468" s="55"/>
+      <c r="X468" s="55"/>
+      <c r="Y468" s="55"/>
+      <c r="Z468" s="55"/>
+      <c r="AA468" s="55"/>
+      <c r="AB468" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC468" s="56"/>
+      <c r="AD468" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE468" s="56"/>
+      <c r="AF468" s="55">
+        <v>270</v>
+      </c>
+      <c r="AG468" s="55">
+        <v>135</v>
+      </c>
+      <c r="AH468" s="55"/>
+      <c r="AI468" s="55">
+        <v>10</v>
+      </c>
+      <c r="AJ468" s="55">
+        <v>100</v>
+      </c>
+      <c r="AK468" s="56"/>
+      <c r="AL468" s="56"/>
+      <c r="AM468" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN468" s="56"/>
+      <c r="AO468" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP468" s="56"/>
+      <c r="AQ468" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR468" s="56"/>
+      <c r="AS468" s="55"/>
+      <c r="AT468" s="55"/>
+      <c r="AU468" s="55"/>
+      <c r="AV468" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="AW468" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX468" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY468" s="61" t="s">
+        <v>555</v>
+      </c>
+      <c r="AZ468" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA468" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB468" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC468" s="56"/>
+      <c r="BD468" s="56"/>
+      <c r="BE468" s="56"/>
+      <c r="BF468" s="55"/>
+      <c r="BG468" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>

--- a/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
+++ b/Parametertabelle_2070-99_Waldstandorte_BE_221118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ccwbe_kohler_MA\ccwbe_kohler_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8496737-3A01-487A-950A-5F480A697C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7FC534-58D6-44ED-AD0A-E3C120A93D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterWaldstandorte" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9658" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9694" uniqueCount="554">
   <si>
     <t>Gruendigkeit</t>
   </si>
@@ -1371,9 +1371,6 @@
     <t>M/A KO</t>
   </si>
   <si>
-    <t>41*</t>
-  </si>
-  <si>
     <t>38 collin</t>
   </si>
   <si>
@@ -2002,9 +1999,6 @@
   </si>
   <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>25F</t>
   </si>
   <si>
     <t>43 43S - colline Variante</t>
@@ -5076,13 +5070,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -5118,6 +5105,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5243,7 +5237,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}" name="Table1" displayName="Table1" ref="A1:BG468" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}" name="Table1" displayName="Table1" ref="A1:BG468" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:BG468" xr:uid="{37E90B91-BBE0-426D-9A1C-0DF719FA6894}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG466">
     <sortCondition ref="A1:A466"/>
@@ -5582,8 +5576,8 @@
   <dimension ref="A1:BG468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q473" sqref="Q473"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G359" sqref="G359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5619,13 +5613,13 @@
   <sheetData>
     <row r="1" spans="1:59" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>278</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>250</v>
@@ -5637,13 +5631,13 @@
         <v>79</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>431</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>442</v>
@@ -5745,37 +5739,37 @@
         <v>311</v>
       </c>
       <c r="AQ1" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="AR1" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="AS1" s="30" t="s">
-        <v>490</v>
-      </c>
       <c r="AT1" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AU1" s="30" t="s">
         <v>229</v>
       </c>
       <c r="AV1" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="AW1" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AX1" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="AX1" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="AY1" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>385</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BB1" s="27" t="s">
         <v>432</v>
@@ -8625,7 +8619,7 @@
         <v>223</v>
       </c>
       <c r="AO25" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP25" s="17" t="s">
         <v>223</v>
@@ -17777,7 +17771,7 @@
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP103" s="17"/>
       <c r="AQ103" s="17">
@@ -23479,7 +23473,7 @@
         <v>223</v>
       </c>
       <c r="AQ151" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR151" s="17"/>
       <c r="AS151" s="33"/>
@@ -28711,7 +28705,7 @@
         <v>223</v>
       </c>
       <c r="AQ195" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AR195" s="17" t="s">
         <v>223</v>
@@ -29806,7 +29800,7 @@
         <v>223</v>
       </c>
       <c r="AQ204" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AR204" s="17"/>
       <c r="AS204" s="33"/>
@@ -30653,7 +30647,7 @@
         <v>223</v>
       </c>
       <c r="AQ211" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR211" s="17"/>
       <c r="AS211" s="33"/>
@@ -30774,7 +30768,7 @@
         <v>223</v>
       </c>
       <c r="AQ212" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR212" s="17" t="s">
         <v>223</v>
@@ -30897,7 +30891,7 @@
         <v>223</v>
       </c>
       <c r="AQ213" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AR213" s="17"/>
       <c r="AS213" s="33"/>
@@ -31145,7 +31139,7 @@
         <v>223</v>
       </c>
       <c r="AQ215" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AR215" s="17"/>
       <c r="AS215" s="33"/>
@@ -32321,7 +32315,7 @@
       </c>
       <c r="AP225" s="17"/>
       <c r="AQ225" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR225" s="17" t="s">
         <v>223</v>
@@ -32910,7 +32904,7 @@
         <v>223</v>
       </c>
       <c r="AQ230" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AR230" s="17"/>
       <c r="AS230" s="33"/>
@@ -37925,7 +37919,7 @@
       </c>
       <c r="AN273" s="17"/>
       <c r="AO273" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AP273" s="17" t="s">
         <v>223</v>
@@ -38155,7 +38149,7 @@
       </c>
       <c r="AN275" s="17"/>
       <c r="AO275" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AP275" s="17"/>
       <c r="AQ275" s="17" t="s">
@@ -47415,17 +47409,17 @@
       <c r="C351" s="33">
         <v>89</v>
       </c>
-      <c r="D351" s="40">
-        <v>38</v>
+      <c r="D351" s="42" t="s">
+        <v>444</v>
       </c>
       <c r="E351" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F351" s="41">
         <v>38</v>
       </c>
       <c r="G351" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H351" s="17">
         <v>3</v>
@@ -47497,7 +47491,7 @@
         <v>223</v>
       </c>
       <c r="AQ351" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR351" s="17"/>
       <c r="AS351" s="33" t="s">
@@ -47513,13 +47507,13 @@
         <v>241</v>
       </c>
       <c r="AY351" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ351" s="17" t="s">
         <v>297</v>
       </c>
       <c r="BA351" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BB351" s="41">
         <v>38</v>
@@ -47540,17 +47534,17 @@
       <c r="C352" s="33">
         <v>89</v>
       </c>
-      <c r="D352" s="40">
-        <v>38</v>
+      <c r="D352" s="42" t="s">
+        <v>444</v>
       </c>
       <c r="E352" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F352" s="41">
         <v>38</v>
       </c>
       <c r="G352" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H352" s="17">
         <v>3</v>
@@ -47622,7 +47616,7 @@
         <v>223</v>
       </c>
       <c r="AQ352" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR352" s="17"/>
       <c r="AS352" s="33" t="s">
@@ -47638,13 +47632,13 @@
         <v>241</v>
       </c>
       <c r="AY352" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ352" s="17" t="s">
         <v>297</v>
       </c>
       <c r="BA352" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BB352" s="41">
         <v>38</v>
@@ -47665,17 +47659,17 @@
       <c r="C353" s="33">
         <v>90</v>
       </c>
-      <c r="D353" s="17" t="s">
-        <v>257</v>
+      <c r="D353" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="E353" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F353" s="17" t="s">
         <v>165</v>
       </c>
       <c r="G353" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H353" s="17" t="s">
         <v>401</v>
@@ -47765,13 +47759,13 @@
         <v>241</v>
       </c>
       <c r="AY353" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ353" s="17" t="s">
         <v>297</v>
       </c>
       <c r="BA353" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BB353" s="17" t="s">
         <v>165</v>
@@ -47794,17 +47788,17 @@
       <c r="C354" s="33">
         <v>91</v>
       </c>
-      <c r="D354" s="40">
-        <v>41</v>
+      <c r="D354" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="E354" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F354" s="41">
         <v>41</v>
       </c>
       <c r="G354" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H354" s="17" t="s">
         <v>401</v>
@@ -47894,13 +47888,13 @@
         <v>241</v>
       </c>
       <c r="AY354" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ354" s="17" t="s">
         <v>297</v>
       </c>
       <c r="BA354" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BB354" s="41">
         <v>41</v>
@@ -47921,17 +47915,17 @@
       <c r="C355" s="33">
         <v>91</v>
       </c>
-      <c r="D355" s="40">
-        <v>41</v>
+      <c r="D355" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="E355" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F355" s="41">
         <v>41</v>
       </c>
       <c r="G355" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H355" s="17" t="s">
         <v>401</v>
@@ -48023,13 +48017,13 @@
         <v>241</v>
       </c>
       <c r="AY355" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ355" s="17" t="s">
         <v>297</v>
       </c>
       <c r="BA355" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BB355" s="41">
         <v>41</v>
@@ -48048,17 +48042,17 @@
         <v>355</v>
       </c>
       <c r="C356" s="22"/>
-      <c r="D356" s="22" t="s">
-        <v>550</v>
+      <c r="D356" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="E356" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F356" s="22">
         <v>25</v>
       </c>
       <c r="G356" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H356" s="39">
         <v>3</v>
@@ -48132,13 +48126,13 @@
         <v>242</v>
       </c>
       <c r="AY356" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AZ356" s="39" t="s">
         <v>291</v>
       </c>
       <c r="BA356" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB356" s="39" t="s">
         <v>59</v>
@@ -48157,17 +48151,17 @@
         <v>356</v>
       </c>
       <c r="C357" s="22"/>
-      <c r="D357" s="22" t="s">
-        <v>256</v>
+      <c r="D357" s="19" t="s">
+        <v>481</v>
       </c>
       <c r="E357" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F357" s="22">
         <v>31</v>
       </c>
       <c r="G357" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>402</v>
@@ -48247,13 +48241,13 @@
         <v>249</v>
       </c>
       <c r="AY357" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ357" s="22" t="s">
         <v>296</v>
       </c>
       <c r="BA357" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BB357" s="22">
         <v>31</v>
@@ -48272,17 +48266,17 @@
         <v>357</v>
       </c>
       <c r="C358" s="22"/>
-      <c r="D358" s="22" t="s">
-        <v>37</v>
+      <c r="D358" s="19" t="s">
+        <v>482</v>
       </c>
       <c r="E358" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F358" s="22">
         <v>39</v>
       </c>
       <c r="G358" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H358" s="22" t="s">
         <v>401</v>
@@ -48356,7 +48350,7 @@
         <v>223</v>
       </c>
       <c r="AQ358" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR358" s="22"/>
       <c r="AS358" s="22" t="s">
@@ -48372,13 +48366,13 @@
         <v>241</v>
       </c>
       <c r="AY358" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ358" s="22" t="s">
         <v>297</v>
       </c>
       <c r="BA358" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BB358" s="22" t="s">
         <v>165</v>
@@ -48399,17 +48393,17 @@
         <v>358</v>
       </c>
       <c r="C359" s="22"/>
-      <c r="D359" s="22">
-        <v>39</v>
+      <c r="D359" s="19" t="s">
+        <v>483</v>
       </c>
       <c r="E359" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F359" s="22">
         <v>39</v>
       </c>
       <c r="G359" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H359" s="22" t="s">
         <v>401</v>
@@ -48499,13 +48493,13 @@
         <v>241</v>
       </c>
       <c r="AY359" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ359" s="22" t="s">
         <v>297</v>
       </c>
       <c r="BA359" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BB359" s="22" t="s">
         <v>165</v>
@@ -48528,17 +48522,17 @@
       <c r="C360" s="22">
         <v>91</v>
       </c>
-      <c r="D360" s="45" t="s">
-        <v>444</v>
+      <c r="D360" s="42" t="s">
+        <v>484</v>
       </c>
       <c r="E360" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F360" s="46">
         <v>41</v>
       </c>
       <c r="G360" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H360" s="39" t="s">
         <v>401</v>
@@ -48626,13 +48620,13 @@
         <v>241</v>
       </c>
       <c r="AY360" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ360" s="39" t="s">
         <v>297</v>
       </c>
       <c r="BA360" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BB360" s="46">
         <v>41</v>
@@ -48653,17 +48647,17 @@
       <c r="C361" s="22">
         <v>91</v>
       </c>
-      <c r="D361" s="45" t="s">
-        <v>444</v>
+      <c r="D361" s="42" t="s">
+        <v>484</v>
       </c>
       <c r="E361" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F361" s="46">
         <v>41</v>
       </c>
       <c r="G361" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H361" s="39" t="s">
         <v>401</v>
@@ -48737,7 +48731,7 @@
         <v>223</v>
       </c>
       <c r="AQ361" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR361" s="47" t="s">
         <v>223</v>
@@ -48755,13 +48749,13 @@
         <v>241</v>
       </c>
       <c r="AY361" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AZ361" s="39" t="s">
         <v>297</v>
       </c>
       <c r="BA361" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BB361" s="46">
         <v>41</v>
@@ -48778,17 +48772,17 @@
         <v>361</v>
       </c>
       <c r="C362" s="23"/>
-      <c r="D362" s="18" t="s">
-        <v>178</v>
+      <c r="D362" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="E362" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F362" s="18" t="s">
         <v>178</v>
       </c>
       <c r="G362" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H362" s="18" t="s">
         <v>401</v>
@@ -48862,7 +48856,7 @@
         <v>266</v>
       </c>
       <c r="AY362" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AZ362" s="18" t="s">
         <v>298</v>
@@ -48881,17 +48875,17 @@
         <v>362</v>
       </c>
       <c r="C363" s="23"/>
-      <c r="D363" s="18" t="s">
-        <v>83</v>
+      <c r="D363" s="19" t="s">
+        <v>525</v>
       </c>
       <c r="E363" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F363" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G363" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H363" s="18" t="s">
         <v>401</v>
@@ -48969,7 +48963,7 @@
         <v>234</v>
       </c>
       <c r="AY363" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AZ363" s="18" t="s">
         <v>83</v>
@@ -48988,17 +48982,17 @@
         <v>363</v>
       </c>
       <c r="C364" s="23"/>
-      <c r="D364" s="18" t="s">
-        <v>549</v>
+      <c r="D364" s="19" t="s">
+        <v>526</v>
       </c>
       <c r="E364" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F364" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G364" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H364" s="18" t="s">
         <v>401</v>
@@ -49080,7 +49074,7 @@
         <v>235</v>
       </c>
       <c r="AY364" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AZ364" s="18" t="s">
         <v>295</v>
@@ -49103,17 +49097,17 @@
       <c r="C365" s="33">
         <v>39</v>
       </c>
-      <c r="D365" s="17" t="s">
-        <v>53</v>
+      <c r="D365" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="E365" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F365" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G365" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H365" s="17" t="s">
         <v>47</v>
@@ -49195,13 +49189,13 @@
         <v>234</v>
       </c>
       <c r="AY365" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ365" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA365" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BB365" s="17" t="s">
         <v>126</v>
@@ -49226,17 +49220,17 @@
       <c r="C366" s="33">
         <v>39</v>
       </c>
-      <c r="D366" s="17" t="s">
-        <v>53</v>
+      <c r="D366" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="E366" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F366" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G366" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H366" s="17" t="s">
         <v>47</v>
@@ -49314,13 +49308,13 @@
         <v>234</v>
       </c>
       <c r="AY366" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ366" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA366" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BB366" s="17" t="s">
         <v>126</v>
@@ -49345,17 +49339,17 @@
       <c r="C367" s="33">
         <v>39</v>
       </c>
-      <c r="D367" s="17" t="s">
-        <v>53</v>
+      <c r="D367" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="E367" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F367" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G367" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H367" s="17" t="s">
         <v>47</v>
@@ -49439,13 +49433,13 @@
         <v>234</v>
       </c>
       <c r="AY367" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ367" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA367" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BB367" s="17" t="s">
         <v>126</v>
@@ -49470,17 +49464,17 @@
       <c r="C368" s="33">
         <v>1</v>
       </c>
-      <c r="D368" s="17" t="s">
-        <v>49</v>
+      <c r="D368" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="E368" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F368" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G368" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H368" s="17">
         <v>2</v>
@@ -49548,7 +49542,7 @@
         <v>223</v>
       </c>
       <c r="AQ368" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR368" s="34" t="s">
         <v>223</v>
@@ -49564,13 +49558,13 @@
         <v>234</v>
       </c>
       <c r="AY368" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ368" s="17" t="s">
         <v>8</v>
       </c>
       <c r="BA368" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BB368" s="17" t="s">
         <v>49</v>
@@ -49593,17 +49587,17 @@
       <c r="C369" s="33">
         <v>4</v>
       </c>
-      <c r="D369" s="17" t="s">
-        <v>44</v>
+      <c r="D369" s="19" t="s">
+        <v>449</v>
       </c>
       <c r="E369" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F369" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G369" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H369" s="17">
         <v>2</v>
@@ -49671,7 +49665,7 @@
         <v>223</v>
       </c>
       <c r="AQ369" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AR369" s="17" t="s">
         <v>223</v>
@@ -49687,13 +49681,13 @@
         <v>248</v>
       </c>
       <c r="AY369" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ369" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA369" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BB369" s="17" t="s">
         <v>44</v>
@@ -49714,17 +49708,17 @@
       <c r="C370" s="33">
         <v>5</v>
       </c>
-      <c r="D370" s="40" t="s">
-        <v>91</v>
+      <c r="D370" s="42" t="s">
+        <v>450</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F370" s="41" t="s">
         <v>91</v>
       </c>
       <c r="G370" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H370" s="17">
         <v>3</v>
@@ -49792,7 +49786,7 @@
         <v>223</v>
       </c>
       <c r="AQ370" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AR370" s="17"/>
       <c r="AS370" s="33"/>
@@ -49806,13 +49800,13 @@
         <v>242</v>
       </c>
       <c r="AY370" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ370" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA370" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BB370" s="41" t="s">
         <v>91</v>
@@ -49833,17 +49827,17 @@
       <c r="C371" s="33">
         <v>5</v>
       </c>
-      <c r="D371" s="40" t="s">
-        <v>91</v>
+      <c r="D371" s="42" t="s">
+        <v>450</v>
       </c>
       <c r="E371" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F371" s="41" t="s">
         <v>91</v>
       </c>
       <c r="G371" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H371" s="17">
         <v>3</v>
@@ -49909,7 +49903,7 @@
       </c>
       <c r="AP371" s="17"/>
       <c r="AQ371" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AR371" s="34" t="s">
         <v>223</v>
@@ -49925,13 +49919,13 @@
         <v>242</v>
       </c>
       <c r="AY371" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ371" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA371" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BB371" s="41" t="s">
         <v>91</v>
@@ -49952,17 +49946,17 @@
       <c r="C372" s="33">
         <v>83</v>
       </c>
-      <c r="D372" s="40" t="s">
-        <v>82</v>
+      <c r="D372" s="42" t="s">
+        <v>451</v>
       </c>
       <c r="E372" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F372" s="41" t="s">
         <v>176</v>
       </c>
       <c r="G372" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H372" s="17" t="s">
         <v>47</v>
@@ -50040,13 +50034,13 @@
         <v>235</v>
       </c>
       <c r="AY372" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ372" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA372" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BB372" s="41" t="s">
         <v>176</v>
@@ -50067,17 +50061,17 @@
       <c r="C373" s="33">
         <v>9</v>
       </c>
-      <c r="D373" s="40" t="s">
-        <v>87</v>
+      <c r="D373" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E373" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F373" s="41" t="s">
         <v>89</v>
       </c>
       <c r="G373" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H373" s="17" t="s">
         <v>47</v>
@@ -50155,13 +50149,13 @@
         <v>239</v>
       </c>
       <c r="AY373" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ373" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA373" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB373" s="41" t="s">
         <v>86</v>
@@ -50182,17 +50176,17 @@
       <c r="C374" s="33">
         <v>11</v>
       </c>
-      <c r="D374" s="40" t="s">
-        <v>96</v>
+      <c r="D374" s="42" t="s">
+        <v>453</v>
       </c>
       <c r="E374" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F374" s="41" t="s">
         <v>96</v>
       </c>
       <c r="G374" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H374" s="17">
         <v>2</v>
@@ -50274,13 +50268,13 @@
         <v>239</v>
       </c>
       <c r="AY374" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ374" s="17" t="s">
         <v>281</v>
       </c>
       <c r="BA374" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB374" s="41" t="s">
         <v>96</v>
@@ -50301,17 +50295,17 @@
       <c r="C375" s="33">
         <v>6</v>
       </c>
-      <c r="D375" s="40" t="s">
-        <v>90</v>
+      <c r="D375" s="42" t="s">
+        <v>454</v>
       </c>
       <c r="E375" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F375" s="41" t="s">
         <v>90</v>
       </c>
       <c r="G375" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H375" s="17">
         <v>3</v>
@@ -50385,13 +50379,13 @@
         <v>239</v>
       </c>
       <c r="AY375" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AZ375" s="17" t="s">
         <v>90</v>
       </c>
       <c r="BA375" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BB375" s="41" t="s">
         <v>90</v>
@@ -50412,17 +50406,17 @@
       <c r="C376" s="33">
         <v>6</v>
       </c>
-      <c r="D376" s="40" t="s">
-        <v>90</v>
+      <c r="D376" s="42" t="s">
+        <v>454</v>
       </c>
       <c r="E376" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F376" s="41" t="s">
         <v>90</v>
       </c>
       <c r="G376" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H376" s="17">
         <v>3</v>
@@ -50486,7 +50480,7 @@
         <v>223</v>
       </c>
       <c r="AQ376" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AR376" s="34" t="s">
         <v>223</v>
@@ -50502,13 +50496,13 @@
         <v>239</v>
       </c>
       <c r="AY376" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AZ376" s="17" t="s">
         <v>90</v>
       </c>
       <c r="BA376" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BB376" s="41" t="s">
         <v>90</v>
@@ -50529,17 +50523,17 @@
       <c r="C377" s="33">
         <v>11</v>
       </c>
-      <c r="D377" s="40" t="s">
-        <v>96</v>
+      <c r="D377" s="42" t="s">
+        <v>453</v>
       </c>
       <c r="E377" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F377" s="41" t="s">
         <v>96</v>
       </c>
       <c r="G377" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H377" s="17">
         <v>2</v>
@@ -50619,13 +50613,13 @@
         <v>239</v>
       </c>
       <c r="AY377" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ377" s="17" t="s">
         <v>281</v>
       </c>
       <c r="BA377" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB377" s="41" t="s">
         <v>96</v>
@@ -50646,17 +50640,17 @@
       <c r="C378" s="33">
         <v>11</v>
       </c>
-      <c r="D378" s="40" t="s">
-        <v>96</v>
+      <c r="D378" s="42" t="s">
+        <v>453</v>
       </c>
       <c r="E378" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F378" s="41" t="s">
         <v>96</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H378" s="17">
         <v>2</v>
@@ -50738,13 +50732,13 @@
         <v>239</v>
       </c>
       <c r="AY378" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AZ378" s="17" t="s">
         <v>281</v>
       </c>
       <c r="BA378" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB378" s="41" t="s">
         <v>96</v>
@@ -50765,17 +50759,17 @@
       <c r="C379" s="33">
         <v>20</v>
       </c>
-      <c r="D379" s="17" t="s">
-        <v>62</v>
+      <c r="D379" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="E379" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F379" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G379" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H379" s="17">
         <v>3</v>
@@ -50849,13 +50843,13 @@
         <v>242</v>
       </c>
       <c r="AY379" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ379" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA379" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BB379" s="17" t="s">
         <v>62</v>
@@ -50876,17 +50870,17 @@
       <c r="C380" s="33">
         <v>20</v>
       </c>
-      <c r="D380" s="17" t="s">
-        <v>62</v>
+      <c r="D380" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="E380" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F380" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G380" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H380" s="17">
         <v>3</v>
@@ -50970,13 +50964,13 @@
         <v>242</v>
       </c>
       <c r="AY380" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ380" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA380" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BB380" s="17" t="s">
         <v>62</v>
@@ -50997,17 +50991,17 @@
       <c r="C381" s="33">
         <v>20</v>
       </c>
-      <c r="D381" s="17" t="s">
-        <v>62</v>
+      <c r="D381" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="E381" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F381" s="17" t="s">
         <v>381</v>
       </c>
       <c r="G381" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H381" s="17" t="s">
         <v>47</v>
@@ -51069,7 +51063,7 @@
         <v>223</v>
       </c>
       <c r="AQ381" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AR381" s="17"/>
       <c r="AS381" s="33"/>
@@ -51083,13 +51077,13 @@
         <v>242</v>
       </c>
       <c r="AY381" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ381" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA381" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BB381" s="17" t="s">
         <v>62</v>
@@ -51110,17 +51104,17 @@
       <c r="C382" s="33">
         <v>23</v>
       </c>
-      <c r="D382" s="40" t="s">
-        <v>108</v>
+      <c r="D382" s="42" t="s">
+        <v>456</v>
       </c>
       <c r="E382" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F382" s="41" t="s">
         <v>108</v>
       </c>
       <c r="G382" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H382" s="17">
         <v>3</v>
@@ -51192,13 +51186,13 @@
         <v>243</v>
       </c>
       <c r="AY382" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ382" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA382" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BB382" s="41" t="s">
         <v>108</v>
@@ -51219,17 +51213,17 @@
       <c r="C383" s="33">
         <v>23</v>
       </c>
-      <c r="D383" s="40" t="s">
-        <v>108</v>
+      <c r="D383" s="42" t="s">
+        <v>456</v>
       </c>
       <c r="E383" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F383" s="41" t="s">
         <v>108</v>
       </c>
       <c r="G383" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H383" s="17">
         <v>3</v>
@@ -51305,13 +51299,13 @@
         <v>243</v>
       </c>
       <c r="AY383" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ383" s="17" t="s">
         <v>279</v>
       </c>
       <c r="BA383" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BB383" s="41" t="s">
         <v>108</v>
@@ -51332,17 +51326,17 @@
       <c r="C384" s="33">
         <v>24</v>
       </c>
-      <c r="D384" s="17" t="s">
-        <v>63</v>
+      <c r="D384" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="E384" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F384" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G384" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H384" s="17">
         <v>3</v>
@@ -51416,13 +51410,13 @@
         <v>234</v>
       </c>
       <c r="AY384" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ384" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA384" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BB384" s="17" t="s">
         <v>63</v>
@@ -51443,17 +51437,17 @@
       <c r="C385" s="33">
         <v>24</v>
       </c>
-      <c r="D385" s="17" t="s">
-        <v>63</v>
+      <c r="D385" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="E385" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F385" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G385" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H385" s="17">
         <v>3</v>
@@ -51527,13 +51521,13 @@
         <v>234</v>
       </c>
       <c r="AY385" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ385" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA385" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BB385" s="17" t="s">
         <v>63</v>
@@ -51554,17 +51548,17 @@
       <c r="C386" s="33">
         <v>24</v>
       </c>
-      <c r="D386" s="17" t="s">
-        <v>63</v>
+      <c r="D386" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="E386" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F386" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H386" s="17">
         <v>3</v>
@@ -51642,13 +51636,13 @@
         <v>234</v>
       </c>
       <c r="AY386" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ386" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA386" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BB386" s="17" t="s">
         <v>63</v>
@@ -51659,7 +51653,7 @@
       <c r="BF386" s="17"/>
       <c r="BG386" s="17"/>
     </row>
-    <row r="387" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="33">
         <v>377</v>
       </c>
@@ -51669,17 +51663,17 @@
       <c r="C387" s="33">
         <v>25</v>
       </c>
-      <c r="D387" s="40" t="s">
-        <v>109</v>
+      <c r="D387" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E387" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F387" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G387" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H387" s="17" t="s">
         <v>47</v>
@@ -51753,13 +51747,13 @@
         <v>243</v>
       </c>
       <c r="AY387" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ387" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA387" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BB387" s="41" t="s">
         <v>109</v>
@@ -51770,7 +51764,7 @@
       <c r="BF387" s="40"/>
       <c r="BG387" s="40"/>
     </row>
-    <row r="388" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="33">
         <v>378</v>
       </c>
@@ -51780,17 +51774,17 @@
       <c r="C388" s="33">
         <v>25</v>
       </c>
-      <c r="D388" s="40" t="s">
-        <v>109</v>
+      <c r="D388" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E388" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F388" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G388" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H388" s="17" t="s">
         <v>47</v>
@@ -51864,13 +51858,13 @@
         <v>243</v>
       </c>
       <c r="AY388" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ388" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA388" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BB388" s="41" t="s">
         <v>109</v>
@@ -51881,7 +51875,7 @@
       <c r="BF388" s="40"/>
       <c r="BG388" s="40"/>
     </row>
-    <row r="389" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="33">
         <v>379</v>
       </c>
@@ -51891,17 +51885,17 @@
       <c r="C389" s="33">
         <v>25</v>
       </c>
-      <c r="D389" s="40" t="s">
-        <v>109</v>
+      <c r="D389" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E389" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F389" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G389" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H389" s="17" t="s">
         <v>47</v>
@@ -51987,13 +51981,13 @@
         <v>243</v>
       </c>
       <c r="AY389" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ389" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA389" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BB389" s="41" t="s">
         <v>109</v>
@@ -52004,7 +51998,7 @@
       <c r="BF389" s="40"/>
       <c r="BG389" s="40"/>
     </row>
-    <row r="390" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="33">
         <v>380</v>
       </c>
@@ -52014,17 +52008,17 @@
       <c r="C390" s="33">
         <v>25</v>
       </c>
-      <c r="D390" s="40" t="s">
-        <v>109</v>
+      <c r="D390" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E390" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F390" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G390" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H390" s="17" t="s">
         <v>47</v>
@@ -52110,13 +52104,13 @@
         <v>243</v>
       </c>
       <c r="AY390" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ390" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA390" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BB390" s="41" t="s">
         <v>109</v>
@@ -52127,7 +52121,7 @@
       <c r="BF390" s="40"/>
       <c r="BG390" s="40"/>
     </row>
-    <row r="391" spans="1:59" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:59" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="33">
         <v>381</v>
       </c>
@@ -52137,17 +52131,17 @@
       <c r="C391" s="33">
         <v>25</v>
       </c>
-      <c r="D391" s="40" t="s">
-        <v>109</v>
+      <c r="D391" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E391" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F391" s="41" t="s">
         <v>109</v>
       </c>
       <c r="G391" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H391" s="17" t="s">
         <v>47</v>
@@ -52223,13 +52217,13 @@
         <v>243</v>
       </c>
       <c r="AY391" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ391" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA391" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BB391" s="41" t="s">
         <v>109</v>
@@ -52250,17 +52244,17 @@
       <c r="C392" s="33">
         <v>26</v>
       </c>
-      <c r="D392" s="17" t="s">
-        <v>52</v>
+      <c r="D392" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="E392" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F392" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H392" s="17">
         <v>2</v>
@@ -52342,13 +52336,13 @@
         <v>239</v>
       </c>
       <c r="AY392" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ392" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA392" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BB392" s="17" t="s">
         <v>52</v>
@@ -52369,17 +52363,17 @@
       <c r="C393" s="33">
         <v>26</v>
       </c>
-      <c r="D393" s="17" t="s">
-        <v>52</v>
+      <c r="D393" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="E393" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F393" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H393" s="17">
         <v>2</v>
@@ -52463,13 +52457,13 @@
         <v>239</v>
       </c>
       <c r="AY393" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ393" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA393" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BB393" s="17" t="s">
         <v>52</v>
@@ -52490,17 +52484,17 @@
       <c r="C394" s="33">
         <v>1</v>
       </c>
-      <c r="D394" s="17" t="s">
-        <v>49</v>
+      <c r="D394" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="E394" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F394" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H394" s="17" t="s">
         <v>80</v>
@@ -52568,7 +52562,7 @@
         <v>223</v>
       </c>
       <c r="AQ394" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR394" s="17"/>
       <c r="AS394" s="33"/>
@@ -52582,13 +52576,13 @@
         <v>234</v>
       </c>
       <c r="AY394" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ394" s="17" t="s">
         <v>8</v>
       </c>
       <c r="BA394" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BB394" s="17" t="s">
         <v>49</v>
@@ -52611,17 +52605,17 @@
       <c r="C395" s="33">
         <v>28</v>
       </c>
-      <c r="D395" s="40" t="s">
-        <v>64</v>
+      <c r="D395" s="42" t="s">
+        <v>455</v>
       </c>
       <c r="E395" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F395" s="41" t="s">
         <v>393</v>
       </c>
       <c r="G395" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H395" s="17">
         <v>3</v>
@@ -52699,13 +52693,13 @@
         <v>242</v>
       </c>
       <c r="AY395" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AZ395" s="17" t="s">
         <v>283</v>
       </c>
       <c r="BA395" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BB395" s="17" t="s">
         <v>62</v>
@@ -52726,17 +52720,17 @@
       <c r="C396" s="33">
         <v>64</v>
       </c>
-      <c r="D396" s="40">
-        <v>22</v>
+      <c r="D396" s="42" t="s">
+        <v>460</v>
       </c>
       <c r="E396" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F396" s="41" t="s">
         <v>154</v>
       </c>
       <c r="G396" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H396" s="17" t="s">
         <v>401</v>
@@ -52802,7 +52796,7 @@
         <v>223</v>
       </c>
       <c r="AQ396" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AR396" s="17"/>
       <c r="AS396" s="33"/>
@@ -52816,13 +52810,13 @@
         <v>248</v>
       </c>
       <c r="AY396" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AZ396" s="17" t="s">
         <v>289</v>
       </c>
       <c r="BA396" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BB396" s="41" t="s">
         <v>154</v>
@@ -52847,17 +52841,17 @@
       <c r="C397" s="33">
         <v>40</v>
       </c>
-      <c r="D397" s="40">
-        <v>14</v>
+      <c r="D397" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="E397" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F397" s="41" t="s">
         <v>122</v>
       </c>
       <c r="G397" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H397" s="17">
         <v>3</v>
@@ -52933,13 +52927,13 @@
         <v>249</v>
       </c>
       <c r="AY397" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ397" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA397" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BB397" s="17" t="s">
         <v>126</v>
@@ -52960,17 +52954,17 @@
       <c r="C398" s="33">
         <v>35</v>
       </c>
-      <c r="D398" s="40" t="s">
-        <v>117</v>
+      <c r="D398" s="42" t="s">
+        <v>461</v>
       </c>
       <c r="E398" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F398" s="41" t="s">
         <v>117</v>
       </c>
       <c r="G398" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H398" s="17" t="s">
         <v>223</v>
@@ -53050,13 +53044,13 @@
         <v>247</v>
       </c>
       <c r="AY398" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ398" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BA398" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BB398" s="41" t="s">
         <v>117</v>
@@ -53077,17 +53071,17 @@
       <c r="C399" s="33">
         <v>34</v>
       </c>
-      <c r="D399" s="17" t="s">
-        <v>65</v>
+      <c r="D399" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="E399" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F399" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G399" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H399" s="17" t="s">
         <v>223</v>
@@ -53167,13 +53161,13 @@
         <v>234</v>
       </c>
       <c r="AY399" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AZ399" s="17" t="s">
         <v>65</v>
       </c>
       <c r="BA399" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BB399" s="17" t="s">
         <v>65</v>
@@ -53194,17 +53188,17 @@
       <c r="C400" s="33">
         <v>34</v>
       </c>
-      <c r="D400" s="17" t="s">
-        <v>65</v>
+      <c r="D400" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="E400" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F400" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G400" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H400" s="17" t="s">
         <v>223</v>
@@ -53288,13 +53282,13 @@
         <v>234</v>
       </c>
       <c r="AY400" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AZ400" s="17" t="s">
         <v>65</v>
       </c>
       <c r="BA400" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BB400" s="17" t="s">
         <v>65</v>
@@ -53315,17 +53309,17 @@
       <c r="C401" s="33">
         <v>35</v>
       </c>
-      <c r="D401" s="40" t="s">
-        <v>117</v>
+      <c r="D401" s="42" t="s">
+        <v>461</v>
       </c>
       <c r="E401" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F401" s="41" t="s">
         <v>117</v>
       </c>
       <c r="G401" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H401" s="17" t="s">
         <v>223</v>
@@ -53403,13 +53397,13 @@
         <v>247</v>
       </c>
       <c r="AY401" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ401" s="17" t="s">
         <v>117</v>
       </c>
       <c r="BA401" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BB401" s="41" t="s">
         <v>117</v>
@@ -53430,17 +53424,17 @@
       <c r="C402" s="33">
         <v>41</v>
       </c>
-      <c r="D402" s="17" t="s">
-        <v>54</v>
+      <c r="D402" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="E402" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F402" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G402" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H402" s="17">
         <v>3</v>
@@ -53514,13 +53508,13 @@
         <v>234</v>
       </c>
       <c r="AY402" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ402" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA402" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BB402" s="17" t="s">
         <v>127</v>
@@ -53541,17 +53535,17 @@
       <c r="C403" s="33">
         <v>46</v>
       </c>
-      <c r="D403" s="17" t="s">
-        <v>55</v>
+      <c r="D403" s="19" t="s">
+        <v>464</v>
       </c>
       <c r="E403" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F403" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G403" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H403" s="17">
         <v>3</v>
@@ -53637,13 +53631,13 @@
         <v>239</v>
       </c>
       <c r="AY403" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AZ403" s="17" t="s">
         <v>55</v>
       </c>
       <c r="BA403" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BB403" s="17" t="s">
         <v>55</v>
@@ -53664,17 +53658,17 @@
       <c r="C404" s="33">
         <v>9</v>
       </c>
-      <c r="D404" s="40" t="s">
-        <v>87</v>
+      <c r="D404" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E404" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F404" s="41" t="s">
         <v>89</v>
       </c>
       <c r="G404" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H404" s="17" t="s">
         <v>47</v>
@@ -53750,13 +53744,13 @@
         <v>239</v>
       </c>
       <c r="AY404" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ404" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA404" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB404" s="41" t="s">
         <v>86</v>
@@ -53777,17 +53771,17 @@
       <c r="C405" s="33">
         <v>83</v>
       </c>
-      <c r="D405" s="40" t="s">
-        <v>82</v>
+      <c r="D405" s="42" t="s">
+        <v>451</v>
       </c>
       <c r="E405" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F405" s="41" t="s">
         <v>176</v>
       </c>
       <c r="G405" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H405" s="17" t="s">
         <v>47</v>
@@ -53865,13 +53859,13 @@
         <v>235</v>
       </c>
       <c r="AY405" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ405" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA405" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BB405" s="41" t="s">
         <v>176</v>
@@ -53892,17 +53886,17 @@
       <c r="C406" s="33">
         <v>10</v>
       </c>
-      <c r="D406" s="17" t="s">
-        <v>87</v>
+      <c r="D406" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E406" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F406" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G406" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H406" s="17" t="s">
         <v>47</v>
@@ -53980,13 +53974,13 @@
         <v>239</v>
       </c>
       <c r="AY406" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ406" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA406" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB406" s="17" t="s">
         <v>86</v>
@@ -54007,17 +54001,17 @@
       <c r="C407" s="33">
         <v>10</v>
       </c>
-      <c r="D407" s="17" t="s">
-        <v>87</v>
+      <c r="D407" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E407" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F407" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G407" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H407" s="17" t="s">
         <v>47</v>
@@ -54095,13 +54089,13 @@
         <v>239</v>
       </c>
       <c r="AY407" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ407" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA407" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB407" s="17" t="s">
         <v>86</v>
@@ -54122,17 +54116,17 @@
       <c r="C408" s="33">
         <v>10</v>
       </c>
-      <c r="D408" s="17" t="s">
-        <v>87</v>
+      <c r="D408" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E408" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F408" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G408" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H408" s="17" t="s">
         <v>47</v>
@@ -54218,13 +54212,13 @@
         <v>239</v>
       </c>
       <c r="AY408" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ408" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA408" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB408" s="17" t="s">
         <v>86</v>
@@ -54245,17 +54239,17 @@
       <c r="C409" s="33">
         <v>9</v>
       </c>
-      <c r="D409" s="40" t="s">
-        <v>87</v>
+      <c r="D409" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E409" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F409" s="41" t="s">
         <v>89</v>
       </c>
       <c r="G409" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H409" s="17" t="s">
         <v>47</v>
@@ -54337,13 +54331,13 @@
         <v>239</v>
       </c>
       <c r="AY409" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ409" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA409" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB409" s="41" t="s">
         <v>89</v>
@@ -54364,17 +54358,17 @@
       <c r="C410" s="33">
         <v>10</v>
       </c>
-      <c r="D410" s="17" t="s">
-        <v>87</v>
+      <c r="D410" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E410" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F410" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G410" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H410" s="17" t="s">
         <v>47</v>
@@ -54458,13 +54452,13 @@
         <v>239</v>
       </c>
       <c r="AY410" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ410" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA410" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB410" s="17" t="s">
         <v>86</v>
@@ -54485,17 +54479,17 @@
       <c r="C411" s="33">
         <v>10</v>
       </c>
-      <c r="D411" s="17" t="s">
-        <v>87</v>
+      <c r="D411" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="E411" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F411" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G411" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H411" s="17" t="s">
         <v>47</v>
@@ -54577,13 +54571,13 @@
         <v>239</v>
       </c>
       <c r="AY411" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ411" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA411" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB411" s="17" t="s">
         <v>86</v>
@@ -54604,17 +54598,17 @@
       <c r="C412" s="33">
         <v>3</v>
       </c>
-      <c r="D412" s="17" t="s">
-        <v>80</v>
+      <c r="D412" s="19" t="s">
+        <v>465</v>
       </c>
       <c r="E412" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F412" s="17" t="s">
         <v>80</v>
       </c>
       <c r="G412" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H412" s="17" t="s">
         <v>402</v>
@@ -54700,13 +54694,13 @@
         <v>247</v>
       </c>
       <c r="AY412" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ412" s="17" t="s">
         <v>8</v>
       </c>
       <c r="BA412" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BB412" s="17" t="s">
         <v>80</v>
@@ -54727,17 +54721,17 @@
       <c r="C413" s="33">
         <v>83</v>
       </c>
-      <c r="D413" s="40" t="s">
-        <v>82</v>
+      <c r="D413" s="42" t="s">
+        <v>451</v>
       </c>
       <c r="E413" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F413" s="41" t="s">
         <v>176</v>
       </c>
       <c r="G413" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H413" s="17" t="s">
         <v>47</v>
@@ -54815,13 +54809,13 @@
         <v>235</v>
       </c>
       <c r="AY413" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ413" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA413" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BB413" s="41" t="s">
         <v>176</v>
@@ -54842,17 +54836,17 @@
       <c r="C414" s="33">
         <v>72</v>
       </c>
-      <c r="D414" s="40">
-        <v>26</v>
+      <c r="D414" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F414" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G414" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H414" s="17" t="s">
         <v>80</v>
@@ -54936,13 +54930,13 @@
         <v>235</v>
       </c>
       <c r="AY414" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ414" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA414" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB414" s="41" t="s">
         <v>226</v>
@@ -54963,17 +54957,17 @@
       <c r="C415" s="33">
         <v>72</v>
       </c>
-      <c r="D415" s="40">
-        <v>26</v>
+      <c r="D415" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E415" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F415" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G415" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H415" s="17" t="s">
         <v>80</v>
@@ -55055,13 +55049,13 @@
         <v>235</v>
       </c>
       <c r="AY415" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ415" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA415" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB415" s="41" t="s">
         <v>226</v>
@@ -55082,17 +55076,17 @@
       <c r="C416" s="33">
         <v>75</v>
       </c>
-      <c r="D416" s="17" t="s">
-        <v>60</v>
+      <c r="D416" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E416" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F416" s="17" t="s">
         <v>130</v>
       </c>
       <c r="G416" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H416" s="17">
         <v>3</v>
@@ -55160,7 +55154,7 @@
         <v>223</v>
       </c>
       <c r="AQ416" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AR416" s="34" t="s">
         <v>223</v>
@@ -55176,13 +55170,13 @@
         <v>235</v>
       </c>
       <c r="AY416" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ416" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA416" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB416" s="17" t="s">
         <v>130</v>
@@ -55203,17 +55197,17 @@
       <c r="C417" s="33">
         <v>76</v>
       </c>
-      <c r="D417" s="40">
-        <v>27</v>
+      <c r="D417" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E417" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F417" s="41" t="s">
         <v>142</v>
       </c>
       <c r="G417" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H417" s="17">
         <v>3</v>
@@ -55297,13 +55291,13 @@
         <v>235</v>
       </c>
       <c r="AY417" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ417" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA417" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB417" s="17" t="s">
         <v>130</v>
@@ -55324,17 +55318,17 @@
       <c r="C418" s="33">
         <v>78</v>
       </c>
-      <c r="D418" s="40">
-        <v>27</v>
+      <c r="D418" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E418" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F418" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G418" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H418" s="17">
         <v>3</v>
@@ -55416,13 +55410,13 @@
         <v>235</v>
       </c>
       <c r="AY418" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ418" s="40">
         <v>27</v>
       </c>
       <c r="BA418" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB418" s="17" t="s">
         <v>130</v>
@@ -55443,17 +55437,17 @@
       <c r="C419" s="33">
         <v>75</v>
       </c>
-      <c r="D419" s="17" t="s">
-        <v>60</v>
+      <c r="D419" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E419" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F419" s="17" t="s">
         <v>130</v>
       </c>
       <c r="G419" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H419" s="17">
         <v>3</v>
@@ -55535,13 +55529,13 @@
         <v>235</v>
       </c>
       <c r="AY419" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ419" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA419" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB419" s="17" t="s">
         <v>130</v>
@@ -55562,17 +55556,17 @@
       <c r="C420" s="33">
         <v>76</v>
       </c>
-      <c r="D420" s="40">
-        <v>27</v>
+      <c r="D420" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E420" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F420" s="41" t="s">
         <v>142</v>
       </c>
       <c r="G420" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H420" s="17">
         <v>3</v>
@@ -55656,13 +55650,13 @@
         <v>235</v>
       </c>
       <c r="AY420" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ420" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA420" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB420" s="17" t="s">
         <v>130</v>
@@ -55683,17 +55677,17 @@
       <c r="C421" s="33">
         <v>78</v>
       </c>
-      <c r="D421" s="40">
-        <v>27</v>
+      <c r="D421" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="E421" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F421" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H421" s="17">
         <v>3</v>
@@ -55775,13 +55769,13 @@
         <v>235</v>
       </c>
       <c r="AY421" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ421" s="40">
         <v>27</v>
       </c>
       <c r="BA421" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB421" s="17" t="s">
         <v>130</v>
@@ -55802,17 +55796,17 @@
       <c r="C422" s="33">
         <v>72</v>
       </c>
-      <c r="D422" s="40">
-        <v>26</v>
+      <c r="D422" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E422" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F422" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G422" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H422" s="17" t="s">
         <v>80</v>
@@ -55894,13 +55888,13 @@
         <v>235</v>
       </c>
       <c r="AY422" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ422" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA422" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB422" s="41" t="s">
         <v>226</v>
@@ -55921,17 +55915,17 @@
       <c r="C423" s="33">
         <v>72</v>
       </c>
-      <c r="D423" s="40">
-        <v>26</v>
+      <c r="D423" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E423" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F423" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G423" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H423" s="17" t="s">
         <v>80</v>
@@ -56013,13 +56007,13 @@
         <v>235</v>
       </c>
       <c r="AY423" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ423" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA423" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB423" s="41" t="s">
         <v>226</v>
@@ -56040,17 +56034,17 @@
       <c r="C424" s="33">
         <v>41</v>
       </c>
-      <c r="D424" s="17" t="s">
-        <v>54</v>
+      <c r="D424" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="E424" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F424" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G424" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H424" s="17" t="s">
         <v>47</v>
@@ -56134,13 +56128,13 @@
         <v>234</v>
       </c>
       <c r="AY424" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ424" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA424" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BB424" s="17" t="s">
         <v>127</v>
@@ -56161,17 +56155,17 @@
       <c r="C425" s="33">
         <v>41</v>
       </c>
-      <c r="D425" s="17" t="s">
-        <v>54</v>
+      <c r="D425" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="E425" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F425" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G425" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H425" s="17" t="s">
         <v>47</v>
@@ -56255,13 +56249,13 @@
         <v>234</v>
       </c>
       <c r="AY425" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ425" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA425" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BB425" s="17" t="s">
         <v>127</v>
@@ -56282,17 +56276,17 @@
       <c r="C426" s="33">
         <v>42</v>
       </c>
-      <c r="D426" s="17" t="s">
-        <v>54</v>
+      <c r="D426" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="E426" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F426" s="17" t="s">
         <v>123</v>
       </c>
       <c r="G426" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H426" s="17" t="s">
         <v>47</v>
@@ -56378,13 +56372,13 @@
         <v>239</v>
       </c>
       <c r="AY426" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ426" s="17" t="s">
         <v>284</v>
       </c>
       <c r="BA426" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BB426" s="17" t="s">
         <v>127</v>
@@ -56405,17 +56399,17 @@
       <c r="C427" s="33">
         <v>70</v>
       </c>
-      <c r="D427" s="17" t="s">
-        <v>146</v>
+      <c r="D427" s="19" t="s">
+        <v>468</v>
       </c>
       <c r="E427" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F427" s="17" t="s">
         <v>146</v>
       </c>
       <c r="G427" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H427" s="17" t="s">
         <v>401</v>
@@ -56479,7 +56473,7 @@
       </c>
       <c r="AP427" s="17"/>
       <c r="AQ427" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR427" s="17" t="s">
         <v>223</v>
@@ -56495,13 +56489,13 @@
         <v>248</v>
       </c>
       <c r="AY427" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ427" s="17" t="s">
         <v>146</v>
       </c>
       <c r="BA427" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BB427" s="17" t="s">
         <v>146</v>
@@ -56522,17 +56516,17 @@
       <c r="C428" s="33">
         <v>64</v>
       </c>
-      <c r="D428" s="40">
-        <v>22</v>
+      <c r="D428" s="42" t="s">
+        <v>460</v>
       </c>
       <c r="E428" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F428" s="41" t="s">
         <v>154</v>
       </c>
       <c r="G428" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H428" s="17" t="s">
         <v>401</v>
@@ -56598,7 +56592,7 @@
         <v>223</v>
       </c>
       <c r="AQ428" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AR428" s="17"/>
       <c r="AS428" s="33"/>
@@ -56612,13 +56606,13 @@
         <v>248</v>
       </c>
       <c r="AY428" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AZ428" s="17" t="s">
         <v>289</v>
       </c>
       <c r="BA428" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BB428" s="41" t="s">
         <v>154</v>
@@ -56643,17 +56637,17 @@
       <c r="C429" s="33">
         <v>64</v>
       </c>
-      <c r="D429" s="40">
-        <v>22</v>
+      <c r="D429" s="42" t="s">
+        <v>460</v>
       </c>
       <c r="E429" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F429" s="41" t="s">
         <v>154</v>
       </c>
       <c r="G429" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H429" s="17" t="s">
         <v>401</v>
@@ -56733,13 +56727,13 @@
         <v>248</v>
       </c>
       <c r="AY429" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AZ429" s="17" t="s">
         <v>289</v>
       </c>
       <c r="BA429" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BB429" s="41" t="s">
         <v>154</v>
@@ -56764,17 +56758,17 @@
       <c r="C430" s="33">
         <v>67</v>
       </c>
-      <c r="D430" s="17" t="s">
-        <v>40</v>
+      <c r="D430" s="19" t="s">
+        <v>469</v>
       </c>
       <c r="E430" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F430" s="17" t="s">
         <v>157</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H430" s="17" t="s">
         <v>401</v>
@@ -56854,13 +56848,13 @@
         <v>242</v>
       </c>
       <c r="AY430" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AZ430" s="17" t="s">
         <v>289</v>
       </c>
       <c r="BA430" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BB430" s="17" t="s">
         <v>157</v>
@@ -56881,17 +56875,17 @@
       <c r="C431" s="33">
         <v>69</v>
       </c>
-      <c r="D431" s="17" t="s">
-        <v>59</v>
+      <c r="D431" s="19" t="s">
+        <v>470</v>
       </c>
       <c r="E431" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F431" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H431" s="17">
         <v>3</v>
@@ -56963,13 +56957,13 @@
         <v>242</v>
       </c>
       <c r="AY431" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AZ431" s="17" t="s">
         <v>291</v>
       </c>
       <c r="BA431" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BB431" s="17" t="s">
         <v>59</v>
@@ -56990,17 +56984,17 @@
       <c r="C432" s="33">
         <v>84</v>
       </c>
-      <c r="D432" s="40" t="s">
-        <v>177</v>
+      <c r="D432" s="42" t="s">
+        <v>471</v>
       </c>
       <c r="E432" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F432" s="41" t="s">
         <v>177</v>
       </c>
       <c r="G432" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H432" s="17" t="s">
         <v>402</v>
@@ -57074,13 +57068,13 @@
         <v>235</v>
       </c>
       <c r="AY432" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AZ432" s="17" t="s">
         <v>295</v>
       </c>
       <c r="BA432" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BB432" s="41" t="s">
         <v>177</v>
@@ -57101,17 +57095,17 @@
       <c r="C433" s="33">
         <v>72</v>
       </c>
-      <c r="D433" s="40">
-        <v>26</v>
+      <c r="D433" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E433" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F433" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G433" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H433" s="17">
         <v>2</v>
@@ -57179,7 +57173,7 @@
         <v>223</v>
       </c>
       <c r="AQ433" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AR433" s="17" t="s">
         <v>223</v>
@@ -57195,13 +57189,13 @@
         <v>235</v>
       </c>
       <c r="AY433" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ433" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA433" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB433" s="41" t="s">
         <v>226</v>
@@ -57222,17 +57216,17 @@
       <c r="C434" s="33">
         <v>72</v>
       </c>
-      <c r="D434" s="40">
-        <v>26</v>
+      <c r="D434" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E434" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F434" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G434" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H434" s="17">
         <v>2</v>
@@ -57314,13 +57308,13 @@
         <v>235</v>
       </c>
       <c r="AY434" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ434" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA434" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB434" s="41" t="s">
         <v>226</v>
@@ -57341,17 +57335,17 @@
       <c r="C435" s="33">
         <v>72</v>
       </c>
-      <c r="D435" s="40">
-        <v>26</v>
+      <c r="D435" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E435" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F435" s="41" t="s">
         <v>226</v>
       </c>
       <c r="G435" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H435" s="17">
         <v>2</v>
@@ -57433,13 +57427,13 @@
         <v>235</v>
       </c>
       <c r="AY435" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ435" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA435" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB435" s="41" t="s">
         <v>226</v>
@@ -57460,17 +57454,17 @@
       <c r="C436" s="33">
         <v>72</v>
       </c>
-      <c r="D436" s="40">
-        <v>26</v>
+      <c r="D436" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E436" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F436" s="41" t="s">
         <v>161</v>
       </c>
       <c r="G436" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H436" s="17">
         <v>2</v>
@@ -57552,13 +57546,13 @@
         <v>235</v>
       </c>
       <c r="AY436" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ436" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA436" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB436" s="41" t="s">
         <v>226</v>
@@ -57579,17 +57573,17 @@
       <c r="C437" s="33">
         <v>72</v>
       </c>
-      <c r="D437" s="40">
-        <v>26</v>
+      <c r="D437" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E437" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F437" s="41" t="s">
         <v>161</v>
       </c>
       <c r="G437" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H437" s="17">
         <v>2</v>
@@ -57671,13 +57665,13 @@
         <v>235</v>
       </c>
       <c r="AY437" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ437" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA437" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB437" s="41" t="s">
         <v>226</v>
@@ -57698,17 +57692,17 @@
       <c r="C438" s="33">
         <v>72</v>
       </c>
-      <c r="D438" s="40">
-        <v>26</v>
+      <c r="D438" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E438" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F438" s="41" t="s">
         <v>161</v>
       </c>
       <c r="G438" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H438" s="17">
         <v>2</v>
@@ -57790,13 +57784,13 @@
         <v>235</v>
       </c>
       <c r="AY438" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ438" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA438" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB438" s="41" t="s">
         <v>226</v>
@@ -57817,17 +57811,17 @@
       <c r="C439" s="33">
         <v>72</v>
       </c>
-      <c r="D439" s="40">
-        <v>26</v>
+      <c r="D439" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E439" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F439" s="41" t="s">
         <v>161</v>
       </c>
       <c r="G439" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H439" s="17">
         <v>2</v>
@@ -57909,13 +57903,13 @@
         <v>235</v>
       </c>
       <c r="AY439" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ439" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA439" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB439" s="41" t="s">
         <v>226</v>
@@ -57936,17 +57930,17 @@
       <c r="C440" s="33">
         <v>72</v>
       </c>
-      <c r="D440" s="40">
-        <v>26</v>
+      <c r="D440" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E440" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F440" s="41" t="s">
         <v>161</v>
       </c>
       <c r="G440" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H440" s="17">
         <v>2</v>
@@ -58016,7 +58010,7 @@
         <v>223</v>
       </c>
       <c r="AQ440" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AR440" s="17"/>
       <c r="AS440" s="33"/>
@@ -58030,13 +58024,13 @@
         <v>235</v>
       </c>
       <c r="AY440" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ440" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA440" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB440" s="41" t="s">
         <v>226</v>
@@ -58057,17 +58051,17 @@
       <c r="C441" s="33">
         <v>74</v>
       </c>
-      <c r="D441" s="40">
-        <v>26</v>
+      <c r="D441" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E441" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F441" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G441" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H441" s="17">
         <v>2</v>
@@ -58149,13 +58143,13 @@
         <v>235</v>
       </c>
       <c r="AY441" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ441" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA441" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB441" s="41" t="s">
         <v>226</v>
@@ -58176,17 +58170,17 @@
       <c r="C442" s="33">
         <v>74</v>
       </c>
-      <c r="D442" s="40">
-        <v>26</v>
+      <c r="D442" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E442" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F442" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G442" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H442" s="17">
         <v>2</v>
@@ -58268,13 +58262,13 @@
         <v>235</v>
       </c>
       <c r="AY442" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ442" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA442" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB442" s="41" t="s">
         <v>226</v>
@@ -58295,17 +58289,17 @@
       <c r="C443" s="33">
         <v>74</v>
       </c>
-      <c r="D443" s="40">
-        <v>26</v>
+      <c r="D443" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E443" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F443" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G443" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H443" s="17">
         <v>2</v>
@@ -58389,13 +58383,13 @@
         <v>235</v>
       </c>
       <c r="AY443" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ443" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA443" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB443" s="41" t="s">
         <v>226</v>
@@ -58416,17 +58410,17 @@
       <c r="C444" s="33">
         <v>74</v>
       </c>
-      <c r="D444" s="40">
-        <v>26</v>
+      <c r="D444" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E444" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F444" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G444" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H444" s="17">
         <v>2</v>
@@ -58508,13 +58502,13 @@
         <v>235</v>
       </c>
       <c r="AY444" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ444" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA444" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB444" s="41" t="s">
         <v>226</v>
@@ -58535,17 +58529,17 @@
       <c r="C445" s="33">
         <v>74</v>
       </c>
-      <c r="D445" s="40">
-        <v>26</v>
+      <c r="D445" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="E445" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F445" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G445" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H445" s="17">
         <v>2</v>
@@ -58627,13 +58621,13 @@
         <v>235</v>
       </c>
       <c r="AY445" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AZ445" s="17" t="s">
         <v>292</v>
       </c>
       <c r="BA445" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BB445" s="41" t="s">
         <v>226</v>
@@ -58654,17 +58648,17 @@
       <c r="C446" s="33">
         <v>76</v>
       </c>
-      <c r="D446" s="40">
-        <v>27</v>
+      <c r="D446" s="42" t="s">
+        <v>467</v>
       </c>
       <c r="E446" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F446" s="41" t="s">
         <v>142</v>
       </c>
       <c r="G446" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H446" s="17">
         <v>3</v>
@@ -58730,7 +58724,7 @@
         <v>223</v>
       </c>
       <c r="AQ446" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR446" s="17"/>
       <c r="AS446" s="33"/>
@@ -58744,13 +58738,13 @@
         <v>235</v>
       </c>
       <c r="AY446" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ446" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA446" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB446" s="17" t="s">
         <v>130</v>
@@ -58771,17 +58765,17 @@
       <c r="C447" s="33">
         <v>75</v>
       </c>
-      <c r="D447" s="17" t="s">
-        <v>60</v>
+      <c r="D447" s="42" t="s">
+        <v>467</v>
       </c>
       <c r="E447" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F447" s="17" t="s">
         <v>130</v>
       </c>
       <c r="G447" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H447" s="17">
         <v>3</v>
@@ -58863,13 +58857,13 @@
         <v>235</v>
       </c>
       <c r="AY447" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ447" s="17" t="s">
         <v>60</v>
       </c>
       <c r="BA447" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB447" s="17" t="s">
         <v>130</v>
@@ -58890,17 +58884,17 @@
       <c r="C448" s="33">
         <v>78</v>
       </c>
-      <c r="D448" s="40">
-        <v>27</v>
+      <c r="D448" s="42" t="s">
+        <v>467</v>
       </c>
       <c r="E448" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F448" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G448" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H448" s="17">
         <v>3</v>
@@ -58982,13 +58976,13 @@
         <v>235</v>
       </c>
       <c r="AY448" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AZ448" s="40">
         <v>27</v>
       </c>
       <c r="BA448" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB448" s="17" t="s">
         <v>130</v>
@@ -59009,17 +59003,17 @@
       <c r="C449" s="33">
         <v>10</v>
       </c>
-      <c r="D449" s="17" t="s">
-        <v>87</v>
+      <c r="D449" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="E449" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F449" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G449" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H449" s="17" t="s">
         <v>47</v>
@@ -59101,13 +59095,13 @@
         <v>239</v>
       </c>
       <c r="AY449" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AZ449" s="17" t="s">
         <v>280</v>
       </c>
       <c r="BA449" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB449" s="17" t="s">
         <v>86</v>
@@ -59128,17 +59122,17 @@
       <c r="C450" s="33">
         <v>81</v>
       </c>
-      <c r="D450" s="17" t="s">
-        <v>71</v>
+      <c r="D450" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="E450" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F450" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G450" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H450" s="17">
         <v>3</v>
@@ -59218,13 +59212,13 @@
         <v>398</v>
       </c>
       <c r="AY450" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ450" s="17" t="s">
         <v>294</v>
       </c>
       <c r="BA450" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BB450" s="17" t="s">
         <v>82</v>
@@ -59245,17 +59239,17 @@
       <c r="C451" s="33">
         <v>79</v>
       </c>
-      <c r="D451" s="40">
-        <v>28</v>
+      <c r="D451" s="42" t="s">
+        <v>473</v>
       </c>
       <c r="E451" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F451" s="41">
         <v>28</v>
       </c>
       <c r="G451" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H451" s="17" t="s">
         <v>401</v>
@@ -59317,7 +59311,7 @@
         <v>223</v>
       </c>
       <c r="AQ451" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AR451" s="17" t="s">
         <v>223</v>
@@ -59333,13 +59327,13 @@
         <v>235</v>
       </c>
       <c r="AY451" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ451" s="17" t="s">
         <v>294</v>
       </c>
       <c r="BA451" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BB451" s="41">
         <v>28</v>
@@ -59360,17 +59354,17 @@
       <c r="C452" s="33">
         <v>85</v>
       </c>
-      <c r="D452" s="40">
-        <v>31</v>
+      <c r="D452" s="42" t="s">
+        <v>474</v>
       </c>
       <c r="E452" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F452" s="41">
         <v>31</v>
       </c>
       <c r="G452" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H452" s="17" t="s">
         <v>402</v>
@@ -59450,13 +59444,13 @@
         <v>249</v>
       </c>
       <c r="AY452" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ452" s="17" t="s">
         <v>296</v>
       </c>
       <c r="BA452" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BB452" s="41">
         <v>31</v>
@@ -59477,17 +59471,17 @@
       <c r="C453" s="33">
         <v>94</v>
       </c>
-      <c r="D453" s="40" t="s">
-        <v>179</v>
+      <c r="D453" s="42" t="s">
+        <v>475</v>
       </c>
       <c r="E453" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F453" s="41" t="s">
         <v>179</v>
       </c>
       <c r="G453" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H453" s="17" t="s">
         <v>401</v>
@@ -59545,7 +59539,7 @@
       </c>
       <c r="AP453" s="17"/>
       <c r="AQ453" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR453" s="17" t="s">
         <v>223</v>
@@ -59561,13 +59555,13 @@
         <v>235</v>
       </c>
       <c r="AY453" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ453" s="40" t="s">
         <v>179</v>
       </c>
       <c r="BA453" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BB453" s="41" t="s">
         <v>179</v>
@@ -59588,17 +59582,17 @@
       <c r="C454" s="33">
         <v>94</v>
       </c>
-      <c r="D454" s="40" t="s">
-        <v>179</v>
+      <c r="D454" s="42" t="s">
+        <v>475</v>
       </c>
       <c r="E454" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F454" s="41" t="s">
         <v>179</v>
       </c>
       <c r="G454" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H454" s="17" t="s">
         <v>401</v>
@@ -59666,7 +59660,7 @@
         <v>223</v>
       </c>
       <c r="AQ454" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AR454" s="17"/>
       <c r="AS454" s="33"/>
@@ -59680,13 +59674,13 @@
         <v>235</v>
       </c>
       <c r="AY454" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ454" s="40" t="s">
         <v>179</v>
       </c>
       <c r="BA454" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BB454" s="41" t="s">
         <v>179</v>
@@ -59707,17 +59701,17 @@
       <c r="C455" s="33">
         <v>125</v>
       </c>
-      <c r="D455" s="40" t="s">
-        <v>198</v>
+      <c r="D455" s="42" t="s">
+        <v>476</v>
       </c>
       <c r="E455" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F455" s="41" t="s">
         <v>198</v>
       </c>
       <c r="G455" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H455" s="17" t="s">
         <v>401</v>
@@ -59801,13 +59795,13 @@
         <v>249</v>
       </c>
       <c r="AY455" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ455" s="40" t="s">
         <v>198</v>
       </c>
       <c r="BA455" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BB455" s="41" t="s">
         <v>198</v>
@@ -59828,17 +59822,17 @@
       <c r="C456" s="33">
         <v>125</v>
       </c>
-      <c r="D456" s="40" t="s">
-        <v>198</v>
+      <c r="D456" s="42" t="s">
+        <v>476</v>
       </c>
       <c r="E456" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F456" s="41" t="s">
         <v>198</v>
       </c>
       <c r="G456" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H456" s="17" t="s">
         <v>401</v>
@@ -59922,13 +59916,13 @@
         <v>249</v>
       </c>
       <c r="AY456" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ456" s="40" t="s">
         <v>198</v>
       </c>
       <c r="BA456" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BB456" s="41" t="s">
         <v>198</v>
@@ -59949,17 +59943,17 @@
       <c r="C457" s="33">
         <v>126</v>
       </c>
-      <c r="D457" s="40">
-        <v>62</v>
+      <c r="D457" s="42" t="s">
+        <v>477</v>
       </c>
       <c r="E457" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F457" s="41">
         <v>62</v>
       </c>
       <c r="G457" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H457" s="17" t="s">
         <v>401</v>
@@ -60027,7 +60021,7 @@
       </c>
       <c r="AP457" s="17"/>
       <c r="AQ457" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR457" s="17"/>
       <c r="AS457" s="33" t="s">
@@ -60043,13 +60037,13 @@
         <v>239</v>
       </c>
       <c r="AY457" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ457" s="40">
         <v>62</v>
       </c>
       <c r="BA457" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BB457" s="41">
         <v>62</v>
@@ -60070,17 +60064,17 @@
       <c r="C458" s="33">
         <v>125</v>
       </c>
-      <c r="D458" s="40" t="s">
-        <v>198</v>
+      <c r="D458" s="42" t="s">
+        <v>476</v>
       </c>
       <c r="E458" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F458" s="41" t="s">
         <v>198</v>
       </c>
       <c r="G458" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H458" s="17" t="s">
         <v>401</v>
@@ -60164,13 +60158,13 @@
         <v>239</v>
       </c>
       <c r="AY458" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ458" s="40" t="s">
         <v>198</v>
       </c>
       <c r="BA458" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BB458" s="41" t="s">
         <v>198</v>
@@ -60191,17 +60185,17 @@
       <c r="C459" s="33">
         <v>126</v>
       </c>
-      <c r="D459" s="40">
-        <v>62</v>
+      <c r="D459" s="42" t="s">
+        <v>477</v>
       </c>
       <c r="E459" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F459" s="41">
         <v>62</v>
       </c>
       <c r="G459" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H459" s="17" t="s">
         <v>401</v>
@@ -60269,7 +60263,7 @@
       </c>
       <c r="AP459" s="17"/>
       <c r="AQ459" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR459" s="17"/>
       <c r="AS459" s="33" t="s">
@@ -60285,13 +60279,13 @@
         <v>239</v>
       </c>
       <c r="AY459" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ459" s="40">
         <v>62</v>
       </c>
       <c r="BA459" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BB459" s="41">
         <v>62</v>
@@ -60312,17 +60306,17 @@
       <c r="C460" s="33">
         <v>128</v>
       </c>
-      <c r="D460" s="17" t="s">
-        <v>73</v>
+      <c r="D460" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="E460" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F460" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G460" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H460" s="17" t="s">
         <v>401</v>
@@ -60414,13 +60408,13 @@
         <v>247</v>
       </c>
       <c r="AY460" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ460" s="17" t="s">
         <v>73</v>
       </c>
       <c r="BA460" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BB460" s="17" t="s">
         <v>73</v>
@@ -60441,17 +60435,17 @@
       <c r="C461" s="33">
         <v>128</v>
       </c>
-      <c r="D461" s="17" t="s">
-        <v>73</v>
+      <c r="D461" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="E461" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F461" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G461" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H461" s="17" t="s">
         <v>401</v>
@@ -60537,13 +60531,13 @@
         <v>247</v>
       </c>
       <c r="AY461" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ461" s="17" t="s">
         <v>73</v>
       </c>
       <c r="BA461" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BB461" s="17" t="s">
         <v>73</v>
@@ -60564,17 +60558,17 @@
       <c r="C462" s="33">
         <v>128</v>
       </c>
-      <c r="D462" s="17" t="s">
-        <v>73</v>
+      <c r="D462" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="E462" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F462" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G462" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H462" s="17" t="s">
         <v>401</v>
@@ -60660,13 +60654,13 @@
         <v>247</v>
       </c>
       <c r="AY462" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ462" s="17" t="s">
         <v>73</v>
       </c>
       <c r="BA462" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BB462" s="17" t="s">
         <v>73</v>
@@ -60687,17 +60681,17 @@
       <c r="C463" s="33">
         <v>128</v>
       </c>
-      <c r="D463" s="17" t="s">
-        <v>73</v>
+      <c r="D463" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="E463" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F463" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G463" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H463" s="17" t="s">
         <v>401</v>
@@ -60785,13 +60779,13 @@
         <v>247</v>
       </c>
       <c r="AY463" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ463" s="17" t="s">
         <v>73</v>
       </c>
       <c r="BA463" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BB463" s="17" t="s">
         <v>73</v>
@@ -60812,17 +60806,17 @@
       <c r="C464" s="33">
         <v>131</v>
       </c>
-      <c r="D464" s="17" t="s">
-        <v>84</v>
+      <c r="D464" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="E464" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F464" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G464" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H464" s="17" t="s">
         <v>401</v>
@@ -60910,13 +60904,13 @@
         <v>248</v>
       </c>
       <c r="AY464" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ464" s="17" t="s">
         <v>84</v>
       </c>
       <c r="BA464" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB464" s="17" t="s">
         <v>84</v>
@@ -60937,17 +60931,17 @@
       <c r="C465" s="33">
         <v>131</v>
       </c>
-      <c r="D465" s="17" t="s">
-        <v>84</v>
+      <c r="D465" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="E465" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F465" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G465" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H465" s="17" t="s">
         <v>401</v>
@@ -61037,13 +61031,13 @@
         <v>248</v>
       </c>
       <c r="AY465" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ465" s="17" t="s">
         <v>84</v>
       </c>
       <c r="BA465" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB465" s="17" t="s">
         <v>84</v>
@@ -61064,17 +61058,17 @@
       <c r="C466" s="33">
         <v>131</v>
       </c>
-      <c r="D466" s="17" t="s">
-        <v>84</v>
+      <c r="D466" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="E466" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F466" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G466" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H466" s="17" t="s">
         <v>401</v>
@@ -61142,7 +61136,7 @@
         <v>223</v>
       </c>
       <c r="AQ466" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR466" s="17" t="s">
         <v>223</v>
@@ -61162,13 +61156,13 @@
         <v>417</v>
       </c>
       <c r="AY466" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ466" s="17" t="s">
         <v>84</v>
       </c>
       <c r="BA466" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB466" s="17" t="s">
         <v>84</v>
@@ -61187,17 +61181,17 @@
       <c r="C467" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D467" s="33" t="s">
-        <v>159</v>
+      <c r="D467" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="E467" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F467" s="17" t="s">
         <v>159</v>
       </c>
       <c r="G467" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H467" s="17">
         <v>3</v>
@@ -61269,7 +61263,7 @@
         <v>234</v>
       </c>
       <c r="AY467" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AZ467" s="17" t="s">
         <v>159</v>
@@ -61292,17 +61286,17 @@
       <c r="C468" s="55">
         <v>63</v>
       </c>
-      <c r="D468" s="55" t="s">
-        <v>152</v>
+      <c r="D468" s="57" t="s">
+        <v>452</v>
       </c>
       <c r="E468" s="57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F468" s="56" t="s">
         <v>86</v>
       </c>
       <c r="G468" s="57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H468" s="56" t="s">
         <v>401</v>
@@ -61376,7 +61370,7 @@
         <v>239</v>
       </c>
       <c r="AY468" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AZ468" s="55" t="s">
         <v>152</v>
